--- a/ReadAndWriteFileExcel/TrungTrang/bin/Debug/excel/mausuachua.xlsx
+++ b/ReadAndWriteFileExcel/TrungTrang/bin/Debug/excel/mausuachua.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20392"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\hoctap\ReadAndWriteFileExcel\ReadAndWriteFileExcel\bin\Release\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\exceltrungtrang\ReadAndWriteFileExcel\TrungTrang\bin\Debug\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECFE9F33-AC75-4E36-8DED-F1C519CDCD7E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" tabRatio="601"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" tabRatio="601" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="20" r:id="rId1"/>
@@ -21,7 +22,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet!$A$1:$AK$70</definedName>
     <definedName name="Tên_tiếng_Việt94">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
@@ -173,7 +174,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
@@ -1197,6 +1198,240 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="14" fillId="0" borderId="11" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="19" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="5" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="6" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="3" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="4" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -1272,256 +1507,22 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="7" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="165" fontId="26" fillId="0" borderId="3" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="26" fillId="0" borderId="4" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="3" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="4" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="19" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="5" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="6" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="14" fillId="0" borderId="11" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Comma 2" xfId="2"/>
-    <cellStyle name="Comma 2 2" xfId="3"/>
+    <cellStyle name="Comma 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Comma 2 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="4"/>
-    <cellStyle name="Normal 2 2" xfId="5"/>
-    <cellStyle name="Normal 4" xfId="6"/>
-    <cellStyle name="Normal_So theo doi DV" xfId="7"/>
+    <cellStyle name="Normal 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Normal 2 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Normal 4" xfId="6" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Normal_So theo doi DV" xfId="7" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1553,7 +1554,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="TextBox 1"/>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1606,18 +1613,11 @@
             </a:lnSpc>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" sz="2000" b="1">
+            <a:rPr lang="vi-VN" sz="2000" b="1">
               <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
               <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t>Cửa hàng do Honda ủy nhiệm HEAD</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="2000" b="1" baseline="0">
-              <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
-              <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t> 49010</a:t>
+            <a:t>Công Ty TNHH Thương Mại Trung Trang</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="2000" b="1">
             <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
@@ -1649,7 +1649,7 @@
               <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
               <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t>: 612/31B</a:t>
+            <a:t>: 613A/31</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1200" b="1" baseline="0">
@@ -1805,7 +1805,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="TextBox 2"/>
+        <xdr:cNvPr id="3" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1984,7 +1990,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="170702" name="Picture 44"/>
+        <xdr:cNvPr id="170702" name="Picture 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000CE9A0200}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -2052,7 +2064,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="170703" name="Picture 11"/>
+        <xdr:cNvPr id="170703" name="Picture 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000CF9A0200}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -2120,7 +2138,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="170704" name="Picture 13"/>
+        <xdr:cNvPr id="170704" name="Picture 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000D09A0200}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -2252,6 +2276,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -2287,6 +2328,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2462,11 +2520,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet11"/>
   <dimension ref="A1:IV57"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A34" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="AJ25" sqref="AJ25:AK44"/>
     </sheetView>
   </sheetViews>
@@ -2526,38 +2584,38 @@
       <c r="G2" s="35"/>
       <c r="H2" s="35"/>
       <c r="I2" s="35"/>
-      <c r="J2" s="109" t="s">
+      <c r="J2" s="187" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="109"/>
-      <c r="L2" s="109"/>
-      <c r="M2" s="109"/>
-      <c r="N2" s="109"/>
-      <c r="O2" s="109"/>
-      <c r="P2" s="109"/>
-      <c r="Q2" s="109"/>
-      <c r="R2" s="109"/>
-      <c r="S2" s="109"/>
-      <c r="T2" s="109"/>
-      <c r="U2" s="109"/>
-      <c r="V2" s="109"/>
-      <c r="W2" s="109"/>
-      <c r="X2" s="109"/>
-      <c r="Y2" s="109"/>
-      <c r="Z2" s="109"/>
-      <c r="AA2" s="109"/>
-      <c r="AB2" s="109"/>
-      <c r="AC2" s="109"/>
-      <c r="AD2" s="109"/>
-      <c r="AE2" s="109"/>
+      <c r="K2" s="187"/>
+      <c r="L2" s="187"/>
+      <c r="M2" s="187"/>
+      <c r="N2" s="187"/>
+      <c r="O2" s="187"/>
+      <c r="P2" s="187"/>
+      <c r="Q2" s="187"/>
+      <c r="R2" s="187"/>
+      <c r="S2" s="187"/>
+      <c r="T2" s="187"/>
+      <c r="U2" s="187"/>
+      <c r="V2" s="187"/>
+      <c r="W2" s="187"/>
+      <c r="X2" s="187"/>
+      <c r="Y2" s="187"/>
+      <c r="Z2" s="187"/>
+      <c r="AA2" s="187"/>
+      <c r="AB2" s="187"/>
+      <c r="AC2" s="187"/>
+      <c r="AD2" s="187"/>
+      <c r="AE2" s="187"/>
       <c r="AF2" s="34"/>
       <c r="AG2" s="34"/>
-      <c r="AH2" s="110" t="s">
+      <c r="AH2" s="188" t="s">
         <v>6</v>
       </c>
-      <c r="AI2" s="113"/>
-      <c r="AJ2" s="113"/>
-      <c r="AK2" s="114"/>
+      <c r="AI2" s="191"/>
+      <c r="AJ2" s="191"/>
+      <c r="AK2" s="192"/>
     </row>
     <row r="3" spans="1:37" s="20" customFormat="1" ht="22.5" customHeight="1">
       <c r="A3" s="1"/>
@@ -2569,34 +2627,34 @@
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
-      <c r="J3" s="109"/>
-      <c r="K3" s="109"/>
-      <c r="L3" s="109"/>
-      <c r="M3" s="109"/>
-      <c r="N3" s="109"/>
-      <c r="O3" s="109"/>
-      <c r="P3" s="109"/>
-      <c r="Q3" s="109"/>
-      <c r="R3" s="109"/>
-      <c r="S3" s="109"/>
-      <c r="T3" s="109"/>
-      <c r="U3" s="109"/>
-      <c r="V3" s="109"/>
-      <c r="W3" s="109"/>
-      <c r="X3" s="109"/>
-      <c r="Y3" s="109"/>
-      <c r="Z3" s="109"/>
-      <c r="AA3" s="109"/>
-      <c r="AB3" s="109"/>
-      <c r="AC3" s="109"/>
-      <c r="AD3" s="109"/>
-      <c r="AE3" s="109"/>
+      <c r="J3" s="187"/>
+      <c r="K3" s="187"/>
+      <c r="L3" s="187"/>
+      <c r="M3" s="187"/>
+      <c r="N3" s="187"/>
+      <c r="O3" s="187"/>
+      <c r="P3" s="187"/>
+      <c r="Q3" s="187"/>
+      <c r="R3" s="187"/>
+      <c r="S3" s="187"/>
+      <c r="T3" s="187"/>
+      <c r="U3" s="187"/>
+      <c r="V3" s="187"/>
+      <c r="W3" s="187"/>
+      <c r="X3" s="187"/>
+      <c r="Y3" s="187"/>
+      <c r="Z3" s="187"/>
+      <c r="AA3" s="187"/>
+      <c r="AB3" s="187"/>
+      <c r="AC3" s="187"/>
+      <c r="AD3" s="187"/>
+      <c r="AE3" s="187"/>
       <c r="AF3" s="34"/>
       <c r="AG3" s="34"/>
-      <c r="AH3" s="111"/>
-      <c r="AI3" s="115"/>
-      <c r="AJ3" s="115"/>
-      <c r="AK3" s="116"/>
+      <c r="AH3" s="189"/>
+      <c r="AI3" s="193"/>
+      <c r="AJ3" s="193"/>
+      <c r="AK3" s="194"/>
     </row>
     <row r="4" spans="1:37" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A4" s="3"/>
@@ -2608,34 +2666,34 @@
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
-      <c r="J4" s="109"/>
-      <c r="K4" s="109"/>
-      <c r="L4" s="109"/>
-      <c r="M4" s="109"/>
-      <c r="N4" s="109"/>
-      <c r="O4" s="109"/>
-      <c r="P4" s="109"/>
-      <c r="Q4" s="109"/>
-      <c r="R4" s="109"/>
-      <c r="S4" s="109"/>
-      <c r="T4" s="109"/>
-      <c r="U4" s="109"/>
-      <c r="V4" s="109"/>
-      <c r="W4" s="109"/>
-      <c r="X4" s="109"/>
-      <c r="Y4" s="109"/>
-      <c r="Z4" s="109"/>
-      <c r="AA4" s="109"/>
-      <c r="AB4" s="109"/>
-      <c r="AC4" s="109"/>
-      <c r="AD4" s="109"/>
-      <c r="AE4" s="109"/>
+      <c r="J4" s="187"/>
+      <c r="K4" s="187"/>
+      <c r="L4" s="187"/>
+      <c r="M4" s="187"/>
+      <c r="N4" s="187"/>
+      <c r="O4" s="187"/>
+      <c r="P4" s="187"/>
+      <c r="Q4" s="187"/>
+      <c r="R4" s="187"/>
+      <c r="S4" s="187"/>
+      <c r="T4" s="187"/>
+      <c r="U4" s="187"/>
+      <c r="V4" s="187"/>
+      <c r="W4" s="187"/>
+      <c r="X4" s="187"/>
+      <c r="Y4" s="187"/>
+      <c r="Z4" s="187"/>
+      <c r="AA4" s="187"/>
+      <c r="AB4" s="187"/>
+      <c r="AC4" s="187"/>
+      <c r="AD4" s="187"/>
+      <c r="AE4" s="187"/>
       <c r="AF4" s="34"/>
       <c r="AG4" s="34"/>
-      <c r="AH4" s="112"/>
-      <c r="AI4" s="117"/>
-      <c r="AJ4" s="117"/>
-      <c r="AK4" s="118"/>
+      <c r="AH4" s="190"/>
+      <c r="AI4" s="195"/>
+      <c r="AJ4" s="195"/>
+      <c r="AK4" s="196"/>
     </row>
     <row r="5" spans="1:37" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A5" s="4"/>
@@ -2647,28 +2705,28 @@
       <c r="G5" s="5"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
-      <c r="J5" s="109"/>
-      <c r="K5" s="109"/>
-      <c r="L5" s="109"/>
-      <c r="M5" s="109"/>
-      <c r="N5" s="109"/>
-      <c r="O5" s="109"/>
-      <c r="P5" s="109"/>
-      <c r="Q5" s="109"/>
-      <c r="R5" s="109"/>
-      <c r="S5" s="109"/>
-      <c r="T5" s="109"/>
-      <c r="U5" s="109"/>
-      <c r="V5" s="109"/>
-      <c r="W5" s="109"/>
-      <c r="X5" s="109"/>
-      <c r="Y5" s="109"/>
-      <c r="Z5" s="109"/>
-      <c r="AA5" s="109"/>
-      <c r="AB5" s="109"/>
-      <c r="AC5" s="109"/>
-      <c r="AD5" s="109"/>
-      <c r="AE5" s="109"/>
+      <c r="J5" s="187"/>
+      <c r="K5" s="187"/>
+      <c r="L5" s="187"/>
+      <c r="M5" s="187"/>
+      <c r="N5" s="187"/>
+      <c r="O5" s="187"/>
+      <c r="P5" s="187"/>
+      <c r="Q5" s="187"/>
+      <c r="R5" s="187"/>
+      <c r="S5" s="187"/>
+      <c r="T5" s="187"/>
+      <c r="U5" s="187"/>
+      <c r="V5" s="187"/>
+      <c r="W5" s="187"/>
+      <c r="X5" s="187"/>
+      <c r="Y5" s="187"/>
+      <c r="Z5" s="187"/>
+      <c r="AA5" s="187"/>
+      <c r="AB5" s="187"/>
+      <c r="AC5" s="187"/>
+      <c r="AD5" s="187"/>
+      <c r="AE5" s="187"/>
       <c r="AF5" s="34"/>
       <c r="AG5" s="34"/>
       <c r="AH5" s="34"/>
@@ -2690,14 +2748,14 @@
       <c r="K6" s="4"/>
       <c r="L6" s="22"/>
       <c r="M6" s="22"/>
-      <c r="N6" s="119"/>
-      <c r="O6" s="119"/>
-      <c r="P6" s="119"/>
-      <c r="Q6" s="119"/>
-      <c r="R6" s="119"/>
-      <c r="S6" s="119"/>
-      <c r="T6" s="119"/>
-      <c r="U6" s="119"/>
+      <c r="N6" s="197"/>
+      <c r="O6" s="197"/>
+      <c r="P6" s="197"/>
+      <c r="Q6" s="197"/>
+      <c r="R6" s="197"/>
+      <c r="S6" s="197"/>
+      <c r="T6" s="197"/>
+      <c r="U6" s="197"/>
       <c r="V6" s="22"/>
       <c r="W6" s="22"/>
       <c r="X6" s="22"/>
@@ -2760,40 +2818,40 @@
       <c r="AD7" s="95"/>
       <c r="AE7" s="95"/>
       <c r="AF7" s="95"/>
-      <c r="AG7" s="120"/>
-      <c r="AH7" s="120"/>
-      <c r="AI7" s="120"/>
-      <c r="AJ7" s="120"/>
-      <c r="AK7" s="121"/>
+      <c r="AG7" s="198"/>
+      <c r="AH7" s="198"/>
+      <c r="AI7" s="198"/>
+      <c r="AJ7" s="198"/>
+      <c r="AK7" s="199"/>
     </row>
     <row r="8" spans="1:37" s="20" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A8" s="122"/>
-      <c r="B8" s="123"/>
-      <c r="C8" s="123"/>
-      <c r="D8" s="123"/>
-      <c r="E8" s="123"/>
-      <c r="F8" s="123"/>
-      <c r="G8" s="123"/>
-      <c r="H8" s="123"/>
-      <c r="I8" s="123"/>
-      <c r="J8" s="124"/>
-      <c r="K8" s="125"/>
-      <c r="L8" s="126"/>
-      <c r="M8" s="126"/>
-      <c r="N8" s="126"/>
-      <c r="O8" s="126"/>
-      <c r="P8" s="126"/>
-      <c r="Q8" s="126"/>
-      <c r="R8" s="126"/>
-      <c r="S8" s="126"/>
-      <c r="T8" s="126"/>
-      <c r="U8" s="126"/>
-      <c r="V8" s="126"/>
-      <c r="W8" s="126"/>
-      <c r="X8" s="126"/>
-      <c r="Y8" s="126"/>
-      <c r="Z8" s="126"/>
-      <c r="AA8" s="127"/>
+      <c r="A8" s="200"/>
+      <c r="B8" s="201"/>
+      <c r="C8" s="201"/>
+      <c r="D8" s="201"/>
+      <c r="E8" s="201"/>
+      <c r="F8" s="201"/>
+      <c r="G8" s="201"/>
+      <c r="H8" s="201"/>
+      <c r="I8" s="201"/>
+      <c r="J8" s="202"/>
+      <c r="K8" s="203"/>
+      <c r="L8" s="204"/>
+      <c r="M8" s="204"/>
+      <c r="N8" s="204"/>
+      <c r="O8" s="204"/>
+      <c r="P8" s="204"/>
+      <c r="Q8" s="204"/>
+      <c r="R8" s="204"/>
+      <c r="S8" s="204"/>
+      <c r="T8" s="204"/>
+      <c r="U8" s="204"/>
+      <c r="V8" s="204"/>
+      <c r="W8" s="204"/>
+      <c r="X8" s="204"/>
+      <c r="Y8" s="204"/>
+      <c r="Z8" s="204"/>
+      <c r="AA8" s="205"/>
       <c r="AB8" s="94" t="s">
         <v>34</v>
       </c>
@@ -2802,10 +2860,10 @@
       <c r="AE8" s="97"/>
       <c r="AF8" s="97"/>
       <c r="AG8" s="97"/>
-      <c r="AH8" s="131"/>
-      <c r="AI8" s="131"/>
-      <c r="AJ8" s="131"/>
-      <c r="AK8" s="132"/>
+      <c r="AH8" s="209"/>
+      <c r="AI8" s="209"/>
+      <c r="AJ8" s="209"/>
+      <c r="AK8" s="210"/>
     </row>
     <row r="9" spans="1:37" s="20" customFormat="1" ht="27.75" customHeight="1">
       <c r="A9" s="98" t="s">
@@ -2813,30 +2871,30 @@
       </c>
       <c r="B9" s="96"/>
       <c r="C9" s="107"/>
-      <c r="D9" s="133"/>
-      <c r="E9" s="134"/>
-      <c r="F9" s="134"/>
-      <c r="G9" s="134"/>
-      <c r="H9" s="134"/>
-      <c r="I9" s="134"/>
-      <c r="J9" s="135"/>
-      <c r="K9" s="128"/>
-      <c r="L9" s="129"/>
-      <c r="M9" s="129"/>
-      <c r="N9" s="129"/>
-      <c r="O9" s="129"/>
-      <c r="P9" s="129"/>
-      <c r="Q9" s="129"/>
-      <c r="R9" s="129"/>
-      <c r="S9" s="129"/>
-      <c r="T9" s="129"/>
-      <c r="U9" s="129"/>
-      <c r="V9" s="129"/>
-      <c r="W9" s="129"/>
-      <c r="X9" s="129"/>
-      <c r="Y9" s="129"/>
-      <c r="Z9" s="129"/>
-      <c r="AA9" s="130"/>
+      <c r="D9" s="211"/>
+      <c r="E9" s="176"/>
+      <c r="F9" s="176"/>
+      <c r="G9" s="176"/>
+      <c r="H9" s="176"/>
+      <c r="I9" s="176"/>
+      <c r="J9" s="177"/>
+      <c r="K9" s="206"/>
+      <c r="L9" s="207"/>
+      <c r="M9" s="207"/>
+      <c r="N9" s="207"/>
+      <c r="O9" s="207"/>
+      <c r="P9" s="207"/>
+      <c r="Q9" s="207"/>
+      <c r="R9" s="207"/>
+      <c r="S9" s="207"/>
+      <c r="T9" s="207"/>
+      <c r="U9" s="207"/>
+      <c r="V9" s="207"/>
+      <c r="W9" s="207"/>
+      <c r="X9" s="207"/>
+      <c r="Y9" s="207"/>
+      <c r="Z9" s="207"/>
+      <c r="AA9" s="208"/>
       <c r="AB9" s="94" t="s">
         <v>26</v>
       </c>
@@ -2845,102 +2903,102 @@
       <c r="AE9" s="97"/>
       <c r="AF9" s="97"/>
       <c r="AG9" s="97"/>
-      <c r="AH9" s="136"/>
-      <c r="AI9" s="136"/>
-      <c r="AJ9" s="136"/>
-      <c r="AK9" s="137"/>
+      <c r="AH9" s="212"/>
+      <c r="AI9" s="212"/>
+      <c r="AJ9" s="212"/>
+      <c r="AK9" s="213"/>
     </row>
     <row r="10" spans="1:37" s="20" customFormat="1" ht="27.75" customHeight="1">
       <c r="A10" s="94" t="s">
         <v>29</v>
       </c>
       <c r="B10" s="95"/>
-      <c r="C10" s="134"/>
-      <c r="D10" s="134"/>
-      <c r="E10" s="134"/>
-      <c r="F10" s="134"/>
-      <c r="G10" s="134"/>
-      <c r="H10" s="134"/>
-      <c r="I10" s="134"/>
-      <c r="J10" s="135"/>
-      <c r="K10" s="138" t="s">
+      <c r="C10" s="176"/>
+      <c r="D10" s="176"/>
+      <c r="E10" s="176"/>
+      <c r="F10" s="176"/>
+      <c r="G10" s="176"/>
+      <c r="H10" s="176"/>
+      <c r="I10" s="176"/>
+      <c r="J10" s="177"/>
+      <c r="K10" s="178" t="s">
         <v>45</v>
       </c>
-      <c r="L10" s="138"/>
-      <c r="M10" s="138"/>
-      <c r="N10" s="138"/>
-      <c r="O10" s="138"/>
-      <c r="P10" s="138"/>
-      <c r="Q10" s="138"/>
-      <c r="R10" s="138"/>
-      <c r="S10" s="138"/>
-      <c r="T10" s="138"/>
-      <c r="U10" s="138"/>
-      <c r="V10" s="138"/>
-      <c r="W10" s="138"/>
-      <c r="X10" s="138"/>
-      <c r="Y10" s="138"/>
-      <c r="Z10" s="138"/>
-      <c r="AA10" s="138"/>
+      <c r="L10" s="178"/>
+      <c r="M10" s="178"/>
+      <c r="N10" s="178"/>
+      <c r="O10" s="178"/>
+      <c r="P10" s="178"/>
+      <c r="Q10" s="178"/>
+      <c r="R10" s="178"/>
+      <c r="S10" s="178"/>
+      <c r="T10" s="178"/>
+      <c r="U10" s="178"/>
+      <c r="V10" s="178"/>
+      <c r="W10" s="178"/>
+      <c r="X10" s="178"/>
+      <c r="Y10" s="178"/>
+      <c r="Z10" s="178"/>
+      <c r="AA10" s="178"/>
       <c r="AB10" s="94" t="s">
         <v>10</v>
       </c>
       <c r="AC10" s="95"/>
-      <c r="AD10" s="139"/>
-      <c r="AE10" s="139"/>
-      <c r="AF10" s="139"/>
-      <c r="AG10" s="139"/>
-      <c r="AH10" s="139"/>
-      <c r="AI10" s="139"/>
-      <c r="AJ10" s="139"/>
-      <c r="AK10" s="140"/>
+      <c r="AD10" s="179"/>
+      <c r="AE10" s="179"/>
+      <c r="AF10" s="179"/>
+      <c r="AG10" s="179"/>
+      <c r="AH10" s="179"/>
+      <c r="AI10" s="179"/>
+      <c r="AJ10" s="179"/>
+      <c r="AK10" s="180"/>
     </row>
     <row r="11" spans="1:37" s="20" customFormat="1" ht="27.75" customHeight="1">
       <c r="A11" s="98" t="s">
         <v>30</v>
       </c>
       <c r="B11" s="96"/>
-      <c r="C11" s="134"/>
-      <c r="D11" s="134"/>
-      <c r="E11" s="134"/>
-      <c r="F11" s="134"/>
-      <c r="G11" s="134"/>
-      <c r="H11" s="134"/>
-      <c r="I11" s="134"/>
-      <c r="J11" s="135"/>
-      <c r="K11" s="138" t="s">
+      <c r="C11" s="176"/>
+      <c r="D11" s="176"/>
+      <c r="E11" s="176"/>
+      <c r="F11" s="176"/>
+      <c r="G11" s="176"/>
+      <c r="H11" s="176"/>
+      <c r="I11" s="176"/>
+      <c r="J11" s="177"/>
+      <c r="K11" s="178" t="s">
         <v>46</v>
       </c>
-      <c r="L11" s="138" t="s">
+      <c r="L11" s="178" t="s">
         <v>4</v>
       </c>
-      <c r="M11" s="138"/>
-      <c r="N11" s="138"/>
-      <c r="O11" s="138"/>
-      <c r="P11" s="138"/>
-      <c r="Q11" s="138"/>
-      <c r="R11" s="138"/>
-      <c r="S11" s="138"/>
-      <c r="T11" s="138"/>
-      <c r="U11" s="138"/>
-      <c r="V11" s="138"/>
-      <c r="W11" s="138"/>
-      <c r="X11" s="138"/>
-      <c r="Y11" s="138"/>
-      <c r="Z11" s="138"/>
-      <c r="AA11" s="138"/>
+      <c r="M11" s="178"/>
+      <c r="N11" s="178"/>
+      <c r="O11" s="178"/>
+      <c r="P11" s="178"/>
+      <c r="Q11" s="178"/>
+      <c r="R11" s="178"/>
+      <c r="S11" s="178"/>
+      <c r="T11" s="178"/>
+      <c r="U11" s="178"/>
+      <c r="V11" s="178"/>
+      <c r="W11" s="178"/>
+      <c r="X11" s="178"/>
+      <c r="Y11" s="178"/>
+      <c r="Z11" s="178"/>
+      <c r="AA11" s="178"/>
       <c r="AB11" s="99" t="s">
         <v>5</v>
       </c>
       <c r="AC11" s="95"/>
       <c r="AD11" s="95"/>
-      <c r="AE11" s="141"/>
-      <c r="AF11" s="141"/>
-      <c r="AG11" s="141"/>
-      <c r="AH11" s="141"/>
-      <c r="AI11" s="141"/>
-      <c r="AJ11" s="141"/>
-      <c r="AK11" s="142"/>
+      <c r="AE11" s="181"/>
+      <c r="AF11" s="181"/>
+      <c r="AG11" s="181"/>
+      <c r="AH11" s="181"/>
+      <c r="AI11" s="181"/>
+      <c r="AJ11" s="181"/>
+      <c r="AK11" s="182"/>
     </row>
     <row r="12" spans="1:37" s="20" customFormat="1" ht="9.75" customHeight="1">
       <c r="A12" s="65"/>
@@ -2982,86 +3040,86 @@
       <c r="AK12" s="13"/>
     </row>
     <row r="13" spans="1:37" s="20" customFormat="1" ht="26.25" customHeight="1">
-      <c r="A13" s="143" t="s">
+      <c r="A13" s="183" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="144"/>
-      <c r="C13" s="144"/>
-      <c r="D13" s="144"/>
-      <c r="E13" s="144"/>
-      <c r="F13" s="144"/>
-      <c r="G13" s="144"/>
-      <c r="H13" s="144"/>
-      <c r="I13" s="144"/>
-      <c r="J13" s="144"/>
-      <c r="K13" s="144"/>
-      <c r="L13" s="144"/>
-      <c r="M13" s="144"/>
-      <c r="N13" s="144"/>
-      <c r="O13" s="144"/>
-      <c r="P13" s="144"/>
-      <c r="Q13" s="144"/>
-      <c r="R13" s="145"/>
-      <c r="S13" s="144" t="s">
+      <c r="B13" s="184"/>
+      <c r="C13" s="184"/>
+      <c r="D13" s="184"/>
+      <c r="E13" s="184"/>
+      <c r="F13" s="184"/>
+      <c r="G13" s="184"/>
+      <c r="H13" s="184"/>
+      <c r="I13" s="184"/>
+      <c r="J13" s="184"/>
+      <c r="K13" s="184"/>
+      <c r="L13" s="184"/>
+      <c r="M13" s="184"/>
+      <c r="N13" s="184"/>
+      <c r="O13" s="184"/>
+      <c r="P13" s="184"/>
+      <c r="Q13" s="184"/>
+      <c r="R13" s="185"/>
+      <c r="S13" s="184" t="s">
         <v>16</v>
       </c>
-      <c r="T13" s="144"/>
-      <c r="U13" s="144"/>
-      <c r="V13" s="144"/>
-      <c r="W13" s="144"/>
-      <c r="X13" s="144"/>
-      <c r="Y13" s="144"/>
-      <c r="Z13" s="144"/>
-      <c r="AA13" s="144"/>
-      <c r="AB13" s="144"/>
-      <c r="AC13" s="144"/>
-      <c r="AD13" s="144"/>
-      <c r="AE13" s="144"/>
-      <c r="AF13" s="144"/>
-      <c r="AG13" s="144"/>
-      <c r="AH13" s="144"/>
-      <c r="AI13" s="145"/>
-      <c r="AJ13" s="146" t="s">
+      <c r="T13" s="184"/>
+      <c r="U13" s="184"/>
+      <c r="V13" s="184"/>
+      <c r="W13" s="184"/>
+      <c r="X13" s="184"/>
+      <c r="Y13" s="184"/>
+      <c r="Z13" s="184"/>
+      <c r="AA13" s="184"/>
+      <c r="AB13" s="184"/>
+      <c r="AC13" s="184"/>
+      <c r="AD13" s="184"/>
+      <c r="AE13" s="184"/>
+      <c r="AF13" s="184"/>
+      <c r="AG13" s="184"/>
+      <c r="AH13" s="184"/>
+      <c r="AI13" s="185"/>
+      <c r="AJ13" s="186" t="s">
         <v>17</v>
       </c>
-      <c r="AK13" s="146"/>
+      <c r="AK13" s="186"/>
     </row>
     <row r="14" spans="1:37" s="20" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A14" s="150"/>
-      <c r="B14" s="151"/>
-      <c r="C14" s="151"/>
-      <c r="D14" s="151"/>
-      <c r="E14" s="151"/>
-      <c r="F14" s="151"/>
-      <c r="G14" s="151"/>
-      <c r="H14" s="151"/>
-      <c r="I14" s="151"/>
-      <c r="J14" s="151"/>
-      <c r="K14" s="151"/>
-      <c r="L14" s="151"/>
-      <c r="M14" s="151"/>
-      <c r="N14" s="151"/>
-      <c r="O14" s="151"/>
-      <c r="P14" s="151"/>
-      <c r="Q14" s="151"/>
-      <c r="R14" s="152"/>
-      <c r="S14" s="150"/>
-      <c r="T14" s="151"/>
-      <c r="U14" s="151"/>
-      <c r="V14" s="151"/>
-      <c r="W14" s="151"/>
-      <c r="X14" s="151"/>
-      <c r="Y14" s="151"/>
-      <c r="Z14" s="151"/>
-      <c r="AA14" s="151"/>
-      <c r="AB14" s="151"/>
-      <c r="AC14" s="151"/>
-      <c r="AD14" s="151"/>
-      <c r="AE14" s="151"/>
-      <c r="AF14" s="151"/>
-      <c r="AG14" s="151"/>
-      <c r="AH14" s="151"/>
-      <c r="AI14" s="152"/>
+      <c r="A14" s="167"/>
+      <c r="B14" s="168"/>
+      <c r="C14" s="168"/>
+      <c r="D14" s="168"/>
+      <c r="E14" s="168"/>
+      <c r="F14" s="168"/>
+      <c r="G14" s="168"/>
+      <c r="H14" s="168"/>
+      <c r="I14" s="168"/>
+      <c r="J14" s="168"/>
+      <c r="K14" s="168"/>
+      <c r="L14" s="168"/>
+      <c r="M14" s="168"/>
+      <c r="N14" s="168"/>
+      <c r="O14" s="168"/>
+      <c r="P14" s="168"/>
+      <c r="Q14" s="168"/>
+      <c r="R14" s="169"/>
+      <c r="S14" s="167"/>
+      <c r="T14" s="168"/>
+      <c r="U14" s="168"/>
+      <c r="V14" s="168"/>
+      <c r="W14" s="168"/>
+      <c r="X14" s="168"/>
+      <c r="Y14" s="168"/>
+      <c r="Z14" s="168"/>
+      <c r="AA14" s="168"/>
+      <c r="AB14" s="168"/>
+      <c r="AC14" s="168"/>
+      <c r="AD14" s="168"/>
+      <c r="AE14" s="168"/>
+      <c r="AF14" s="168"/>
+      <c r="AG14" s="168"/>
+      <c r="AH14" s="168"/>
+      <c r="AI14" s="169"/>
       <c r="AJ14" s="57" t="s">
         <v>11</v>
       </c>
@@ -3070,41 +3128,41 @@
       </c>
     </row>
     <row r="15" spans="1:37" s="20" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A15" s="153"/>
-      <c r="B15" s="154"/>
-      <c r="C15" s="154"/>
-      <c r="D15" s="154"/>
-      <c r="E15" s="154"/>
-      <c r="F15" s="154"/>
-      <c r="G15" s="154"/>
-      <c r="H15" s="154"/>
-      <c r="I15" s="154"/>
-      <c r="J15" s="154"/>
-      <c r="K15" s="154"/>
-      <c r="L15" s="154"/>
-      <c r="M15" s="154"/>
-      <c r="N15" s="154"/>
-      <c r="O15" s="154"/>
-      <c r="P15" s="154"/>
-      <c r="Q15" s="154"/>
-      <c r="R15" s="155"/>
-      <c r="S15" s="153"/>
-      <c r="T15" s="154"/>
-      <c r="U15" s="154"/>
-      <c r="V15" s="154"/>
-      <c r="W15" s="154"/>
-      <c r="X15" s="154"/>
-      <c r="Y15" s="154"/>
-      <c r="Z15" s="154"/>
-      <c r="AA15" s="154"/>
-      <c r="AB15" s="154"/>
-      <c r="AC15" s="154"/>
-      <c r="AD15" s="154"/>
-      <c r="AE15" s="154"/>
-      <c r="AF15" s="154"/>
-      <c r="AG15" s="154"/>
-      <c r="AH15" s="154"/>
-      <c r="AI15" s="155"/>
+      <c r="A15" s="170"/>
+      <c r="B15" s="171"/>
+      <c r="C15" s="171"/>
+      <c r="D15" s="171"/>
+      <c r="E15" s="171"/>
+      <c r="F15" s="171"/>
+      <c r="G15" s="171"/>
+      <c r="H15" s="171"/>
+      <c r="I15" s="171"/>
+      <c r="J15" s="171"/>
+      <c r="K15" s="171"/>
+      <c r="L15" s="171"/>
+      <c r="M15" s="171"/>
+      <c r="N15" s="171"/>
+      <c r="O15" s="171"/>
+      <c r="P15" s="171"/>
+      <c r="Q15" s="171"/>
+      <c r="R15" s="172"/>
+      <c r="S15" s="170"/>
+      <c r="T15" s="171"/>
+      <c r="U15" s="171"/>
+      <c r="V15" s="171"/>
+      <c r="W15" s="171"/>
+      <c r="X15" s="171"/>
+      <c r="Y15" s="171"/>
+      <c r="Z15" s="171"/>
+      <c r="AA15" s="171"/>
+      <c r="AB15" s="171"/>
+      <c r="AC15" s="171"/>
+      <c r="AD15" s="171"/>
+      <c r="AE15" s="171"/>
+      <c r="AF15" s="171"/>
+      <c r="AG15" s="171"/>
+      <c r="AH15" s="171"/>
+      <c r="AI15" s="172"/>
       <c r="AJ15" s="58" t="s">
         <v>11</v>
       </c>
@@ -3113,41 +3171,41 @@
       </c>
     </row>
     <row r="16" spans="1:37" s="20" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A16" s="156"/>
-      <c r="B16" s="157"/>
-      <c r="C16" s="157"/>
-      <c r="D16" s="157"/>
-      <c r="E16" s="157"/>
-      <c r="F16" s="157"/>
-      <c r="G16" s="157"/>
-      <c r="H16" s="157"/>
-      <c r="I16" s="157"/>
-      <c r="J16" s="157"/>
-      <c r="K16" s="157"/>
-      <c r="L16" s="157"/>
-      <c r="M16" s="157"/>
-      <c r="N16" s="157"/>
-      <c r="O16" s="157"/>
-      <c r="P16" s="157"/>
-      <c r="Q16" s="157"/>
-      <c r="R16" s="158"/>
-      <c r="S16" s="156"/>
-      <c r="T16" s="157"/>
-      <c r="U16" s="157"/>
-      <c r="V16" s="157"/>
-      <c r="W16" s="157"/>
-      <c r="X16" s="157"/>
-      <c r="Y16" s="157"/>
-      <c r="Z16" s="157"/>
-      <c r="AA16" s="157"/>
-      <c r="AB16" s="157"/>
-      <c r="AC16" s="157"/>
-      <c r="AD16" s="157"/>
-      <c r="AE16" s="157"/>
-      <c r="AF16" s="157"/>
-      <c r="AG16" s="157"/>
-      <c r="AH16" s="157"/>
-      <c r="AI16" s="158"/>
+      <c r="A16" s="173"/>
+      <c r="B16" s="174"/>
+      <c r="C16" s="174"/>
+      <c r="D16" s="174"/>
+      <c r="E16" s="174"/>
+      <c r="F16" s="174"/>
+      <c r="G16" s="174"/>
+      <c r="H16" s="174"/>
+      <c r="I16" s="174"/>
+      <c r="J16" s="174"/>
+      <c r="K16" s="174"/>
+      <c r="L16" s="174"/>
+      <c r="M16" s="174"/>
+      <c r="N16" s="174"/>
+      <c r="O16" s="174"/>
+      <c r="P16" s="174"/>
+      <c r="Q16" s="174"/>
+      <c r="R16" s="175"/>
+      <c r="S16" s="173"/>
+      <c r="T16" s="174"/>
+      <c r="U16" s="174"/>
+      <c r="V16" s="174"/>
+      <c r="W16" s="174"/>
+      <c r="X16" s="174"/>
+      <c r="Y16" s="174"/>
+      <c r="Z16" s="174"/>
+      <c r="AA16" s="174"/>
+      <c r="AB16" s="174"/>
+      <c r="AC16" s="174"/>
+      <c r="AD16" s="174"/>
+      <c r="AE16" s="174"/>
+      <c r="AF16" s="174"/>
+      <c r="AG16" s="174"/>
+      <c r="AH16" s="174"/>
+      <c r="AI16" s="175"/>
       <c r="AJ16" s="59" t="s">
         <v>11</v>
       </c>
@@ -3195,43 +3253,43 @@
       <c r="AK17" s="63"/>
     </row>
     <row r="18" spans="1:45" ht="22.5" customHeight="1">
-      <c r="A18" s="147"/>
-      <c r="B18" s="148"/>
-      <c r="C18" s="148"/>
-      <c r="D18" s="148"/>
-      <c r="E18" s="148"/>
-      <c r="F18" s="148"/>
-      <c r="G18" s="148"/>
-      <c r="H18" s="148"/>
-      <c r="I18" s="148"/>
-      <c r="J18" s="148"/>
-      <c r="K18" s="148"/>
-      <c r="L18" s="148"/>
-      <c r="M18" s="148"/>
-      <c r="N18" s="148"/>
-      <c r="O18" s="148"/>
-      <c r="P18" s="148"/>
-      <c r="Q18" s="148"/>
-      <c r="R18" s="148"/>
-      <c r="S18" s="148"/>
-      <c r="T18" s="148"/>
-      <c r="U18" s="148"/>
-      <c r="V18" s="148"/>
-      <c r="W18" s="148"/>
-      <c r="X18" s="148"/>
-      <c r="Y18" s="148"/>
-      <c r="Z18" s="148"/>
-      <c r="AA18" s="148"/>
-      <c r="AB18" s="148"/>
-      <c r="AC18" s="148"/>
-      <c r="AD18" s="148"/>
-      <c r="AE18" s="148"/>
-      <c r="AF18" s="148"/>
-      <c r="AG18" s="148"/>
-      <c r="AH18" s="148"/>
-      <c r="AI18" s="148"/>
-      <c r="AJ18" s="148"/>
-      <c r="AK18" s="149"/>
+      <c r="A18" s="164"/>
+      <c r="B18" s="165"/>
+      <c r="C18" s="165"/>
+      <c r="D18" s="165"/>
+      <c r="E18" s="165"/>
+      <c r="F18" s="165"/>
+      <c r="G18" s="165"/>
+      <c r="H18" s="165"/>
+      <c r="I18" s="165"/>
+      <c r="J18" s="165"/>
+      <c r="K18" s="165"/>
+      <c r="L18" s="165"/>
+      <c r="M18" s="165"/>
+      <c r="N18" s="165"/>
+      <c r="O18" s="165"/>
+      <c r="P18" s="165"/>
+      <c r="Q18" s="165"/>
+      <c r="R18" s="165"/>
+      <c r="S18" s="165"/>
+      <c r="T18" s="165"/>
+      <c r="U18" s="165"/>
+      <c r="V18" s="165"/>
+      <c r="W18" s="165"/>
+      <c r="X18" s="165"/>
+      <c r="Y18" s="165"/>
+      <c r="Z18" s="165"/>
+      <c r="AA18" s="165"/>
+      <c r="AB18" s="165"/>
+      <c r="AC18" s="165"/>
+      <c r="AD18" s="165"/>
+      <c r="AE18" s="165"/>
+      <c r="AF18" s="165"/>
+      <c r="AG18" s="165"/>
+      <c r="AH18" s="165"/>
+      <c r="AI18" s="165"/>
+      <c r="AJ18" s="165"/>
+      <c r="AK18" s="166"/>
     </row>
     <row r="19" spans="1:45" s="20" customFormat="1" ht="21" customHeight="1">
       <c r="A19" s="64"/>
@@ -3390,100 +3448,100 @@
       <c r="AK22" s="162"/>
     </row>
     <row r="23" spans="1:45" ht="21.75" customHeight="1">
-      <c r="A23" s="169" t="s">
+      <c r="A23" s="147" t="s">
         <v>7</v>
       </c>
-      <c r="B23" s="170"/>
-      <c r="C23" s="170"/>
-      <c r="D23" s="170"/>
-      <c r="E23" s="170"/>
-      <c r="F23" s="170"/>
-      <c r="G23" s="170"/>
-      <c r="H23" s="170"/>
-      <c r="I23" s="170"/>
-      <c r="J23" s="170"/>
-      <c r="K23" s="170"/>
-      <c r="L23" s="170"/>
-      <c r="M23" s="170"/>
-      <c r="N23" s="170"/>
-      <c r="O23" s="170"/>
-      <c r="P23" s="170"/>
-      <c r="Q23" s="170"/>
-      <c r="R23" s="170"/>
-      <c r="S23" s="170"/>
-      <c r="T23" s="170"/>
-      <c r="U23" s="170"/>
-      <c r="V23" s="170"/>
-      <c r="W23" s="170"/>
-      <c r="X23" s="170"/>
-      <c r="Y23" s="170"/>
-      <c r="Z23" s="170"/>
-      <c r="AA23" s="170"/>
-      <c r="AB23" s="170"/>
-      <c r="AC23" s="170"/>
-      <c r="AD23" s="170"/>
-      <c r="AE23" s="170"/>
-      <c r="AF23" s="170"/>
-      <c r="AG23" s="170"/>
-      <c r="AH23" s="170"/>
-      <c r="AI23" s="170"/>
-      <c r="AJ23" s="170"/>
-      <c r="AK23" s="171"/>
+      <c r="B23" s="148"/>
+      <c r="C23" s="148"/>
+      <c r="D23" s="148"/>
+      <c r="E23" s="148"/>
+      <c r="F23" s="148"/>
+      <c r="G23" s="148"/>
+      <c r="H23" s="148"/>
+      <c r="I23" s="148"/>
+      <c r="J23" s="148"/>
+      <c r="K23" s="148"/>
+      <c r="L23" s="148"/>
+      <c r="M23" s="148"/>
+      <c r="N23" s="148"/>
+      <c r="O23" s="148"/>
+      <c r="P23" s="148"/>
+      <c r="Q23" s="148"/>
+      <c r="R23" s="148"/>
+      <c r="S23" s="148"/>
+      <c r="T23" s="148"/>
+      <c r="U23" s="148"/>
+      <c r="V23" s="148"/>
+      <c r="W23" s="148"/>
+      <c r="X23" s="148"/>
+      <c r="Y23" s="148"/>
+      <c r="Z23" s="148"/>
+      <c r="AA23" s="148"/>
+      <c r="AB23" s="148"/>
+      <c r="AC23" s="148"/>
+      <c r="AD23" s="148"/>
+      <c r="AE23" s="148"/>
+      <c r="AF23" s="148"/>
+      <c r="AG23" s="148"/>
+      <c r="AH23" s="148"/>
+      <c r="AI23" s="148"/>
+      <c r="AJ23" s="148"/>
+      <c r="AK23" s="149"/>
     </row>
     <row r="24" spans="1:45" ht="40.5" customHeight="1">
       <c r="A24" s="101" t="s">
         <v>13</v>
       </c>
-      <c r="B24" s="172" t="s">
+      <c r="B24" s="150" t="s">
         <v>36</v>
       </c>
-      <c r="C24" s="172"/>
-      <c r="D24" s="172"/>
-      <c r="E24" s="172"/>
-      <c r="F24" s="172"/>
-      <c r="G24" s="172"/>
-      <c r="H24" s="172"/>
-      <c r="I24" s="173" t="s">
+      <c r="C24" s="150"/>
+      <c r="D24" s="150"/>
+      <c r="E24" s="150"/>
+      <c r="F24" s="150"/>
+      <c r="G24" s="150"/>
+      <c r="H24" s="150"/>
+      <c r="I24" s="151" t="s">
         <v>18</v>
       </c>
-      <c r="J24" s="173"/>
-      <c r="K24" s="173"/>
-      <c r="L24" s="173"/>
-      <c r="M24" s="173"/>
-      <c r="N24" s="173"/>
-      <c r="O24" s="174" t="s">
+      <c r="J24" s="151"/>
+      <c r="K24" s="151"/>
+      <c r="L24" s="151"/>
+      <c r="M24" s="151"/>
+      <c r="N24" s="151"/>
+      <c r="O24" s="152" t="s">
         <v>24</v>
       </c>
-      <c r="P24" s="175"/>
-      <c r="Q24" s="175"/>
-      <c r="R24" s="175"/>
-      <c r="S24" s="175"/>
-      <c r="T24" s="175"/>
-      <c r="U24" s="176" t="s">
+      <c r="P24" s="153"/>
+      <c r="Q24" s="153"/>
+      <c r="R24" s="153"/>
+      <c r="S24" s="153"/>
+      <c r="T24" s="153"/>
+      <c r="U24" s="154" t="s">
         <v>3</v>
       </c>
-      <c r="V24" s="176"/>
-      <c r="W24" s="177" t="s">
+      <c r="V24" s="154"/>
+      <c r="W24" s="155" t="s">
         <v>37</v>
       </c>
-      <c r="X24" s="176"/>
-      <c r="Y24" s="176"/>
-      <c r="Z24" s="176"/>
-      <c r="AA24" s="176"/>
-      <c r="AB24" s="176"/>
-      <c r="AC24" s="176"/>
-      <c r="AD24" s="176"/>
-      <c r="AE24" s="178" t="s">
+      <c r="X24" s="154"/>
+      <c r="Y24" s="154"/>
+      <c r="Z24" s="154"/>
+      <c r="AA24" s="154"/>
+      <c r="AB24" s="154"/>
+      <c r="AC24" s="154"/>
+      <c r="AD24" s="154"/>
+      <c r="AE24" s="156" t="s">
         <v>38</v>
       </c>
-      <c r="AF24" s="179"/>
-      <c r="AG24" s="179"/>
-      <c r="AH24" s="179"/>
-      <c r="AI24" s="180"/>
-      <c r="AJ24" s="177" t="s">
+      <c r="AF24" s="157"/>
+      <c r="AG24" s="157"/>
+      <c r="AH24" s="157"/>
+      <c r="AI24" s="158"/>
+      <c r="AJ24" s="155" t="s">
         <v>39</v>
       </c>
-      <c r="AK24" s="177"/>
+      <c r="AK24" s="155"/>
       <c r="AM24" s="104" t="s">
         <v>42</v>
       </c>
@@ -3498,53 +3556,53 @@
       <c r="A25" s="55">
         <v>1</v>
       </c>
-      <c r="B25" s="166" t="str">
+      <c r="B25" s="133" t="str">
         <f>IF(I25="","",VLOOKUP(I25,#REF!,2,0))</f>
         <v/>
       </c>
-      <c r="C25" s="167"/>
-      <c r="D25" s="167"/>
-      <c r="E25" s="167"/>
-      <c r="F25" s="167"/>
-      <c r="G25" s="167"/>
-      <c r="H25" s="167"/>
-      <c r="I25" s="167"/>
-      <c r="J25" s="167"/>
-      <c r="K25" s="167"/>
-      <c r="L25" s="167"/>
-      <c r="M25" s="167"/>
-      <c r="N25" s="167"/>
-      <c r="O25" s="164"/>
-      <c r="P25" s="164"/>
-      <c r="Q25" s="164"/>
-      <c r="R25" s="164"/>
-      <c r="S25" s="164"/>
-      <c r="T25" s="164"/>
-      <c r="U25" s="164"/>
-      <c r="V25" s="164"/>
-      <c r="W25" s="168">
+      <c r="C25" s="134"/>
+      <c r="D25" s="134"/>
+      <c r="E25" s="134"/>
+      <c r="F25" s="134"/>
+      <c r="G25" s="134"/>
+      <c r="H25" s="134"/>
+      <c r="I25" s="134"/>
+      <c r="J25" s="134"/>
+      <c r="K25" s="134"/>
+      <c r="L25" s="134"/>
+      <c r="M25" s="134"/>
+      <c r="N25" s="134"/>
+      <c r="O25" s="144"/>
+      <c r="P25" s="144"/>
+      <c r="Q25" s="144"/>
+      <c r="R25" s="144"/>
+      <c r="S25" s="144"/>
+      <c r="T25" s="144"/>
+      <c r="U25" s="144"/>
+      <c r="V25" s="144"/>
+      <c r="W25" s="136">
         <f>O25*U25</f>
         <v>0</v>
       </c>
-      <c r="X25" s="168"/>
-      <c r="Y25" s="168"/>
-      <c r="Z25" s="168"/>
-      <c r="AA25" s="168"/>
-      <c r="AB25" s="168"/>
-      <c r="AC25" s="168"/>
-      <c r="AD25" s="168"/>
-      <c r="AE25" s="168">
-        <v>0</v>
-      </c>
-      <c r="AF25" s="168"/>
-      <c r="AG25" s="168"/>
-      <c r="AH25" s="168"/>
-      <c r="AI25" s="168"/>
-      <c r="AJ25" s="164">
+      <c r="X25" s="136"/>
+      <c r="Y25" s="136"/>
+      <c r="Z25" s="136"/>
+      <c r="AA25" s="136"/>
+      <c r="AB25" s="136"/>
+      <c r="AC25" s="136"/>
+      <c r="AD25" s="136"/>
+      <c r="AE25" s="136">
+        <v>0</v>
+      </c>
+      <c r="AF25" s="136"/>
+      <c r="AG25" s="136"/>
+      <c r="AH25" s="136"/>
+      <c r="AI25" s="136"/>
+      <c r="AJ25" s="144">
         <f>W25+AE25</f>
         <v>0</v>
       </c>
-      <c r="AK25" s="165"/>
+      <c r="AK25" s="145"/>
       <c r="AM25" s="104" t="s">
         <v>43</v>
       </c>
@@ -3559,209 +3617,209 @@
       <c r="A26" s="54">
         <v>2</v>
       </c>
-      <c r="B26" s="166" t="str">
+      <c r="B26" s="133" t="str">
         <f>IF(I26="","",VLOOKUP(I26,#REF!,2,0))</f>
         <v/>
       </c>
-      <c r="C26" s="167"/>
-      <c r="D26" s="167"/>
-      <c r="E26" s="167"/>
-      <c r="F26" s="167"/>
-      <c r="G26" s="167"/>
-      <c r="H26" s="167"/>
-      <c r="I26" s="167"/>
-      <c r="J26" s="167"/>
-      <c r="K26" s="167"/>
-      <c r="L26" s="167"/>
-      <c r="M26" s="167"/>
-      <c r="N26" s="167"/>
-      <c r="O26" s="168"/>
-      <c r="P26" s="168"/>
-      <c r="Q26" s="168"/>
-      <c r="R26" s="168"/>
-      <c r="S26" s="168"/>
-      <c r="T26" s="168"/>
-      <c r="U26" s="168"/>
-      <c r="V26" s="168"/>
-      <c r="W26" s="168">
+      <c r="C26" s="134"/>
+      <c r="D26" s="134"/>
+      <c r="E26" s="134"/>
+      <c r="F26" s="134"/>
+      <c r="G26" s="134"/>
+      <c r="H26" s="134"/>
+      <c r="I26" s="134"/>
+      <c r="J26" s="134"/>
+      <c r="K26" s="134"/>
+      <c r="L26" s="134"/>
+      <c r="M26" s="134"/>
+      <c r="N26" s="134"/>
+      <c r="O26" s="136"/>
+      <c r="P26" s="136"/>
+      <c r="Q26" s="136"/>
+      <c r="R26" s="136"/>
+      <c r="S26" s="136"/>
+      <c r="T26" s="136"/>
+      <c r="U26" s="136"/>
+      <c r="V26" s="136"/>
+      <c r="W26" s="136">
         <f>O26*U26</f>
         <v>0</v>
       </c>
-      <c r="X26" s="168"/>
-      <c r="Y26" s="168"/>
-      <c r="Z26" s="168"/>
-      <c r="AA26" s="168"/>
-      <c r="AB26" s="168"/>
-      <c r="AC26" s="168"/>
-      <c r="AD26" s="168"/>
-      <c r="AE26" s="168">
-        <v>0</v>
-      </c>
-      <c r="AF26" s="168"/>
-      <c r="AG26" s="168"/>
-      <c r="AH26" s="168"/>
-      <c r="AI26" s="168"/>
-      <c r="AJ26" s="164">
+      <c r="X26" s="136"/>
+      <c r="Y26" s="136"/>
+      <c r="Z26" s="136"/>
+      <c r="AA26" s="136"/>
+      <c r="AB26" s="136"/>
+      <c r="AC26" s="136"/>
+      <c r="AD26" s="136"/>
+      <c r="AE26" s="136">
+        <v>0</v>
+      </c>
+      <c r="AF26" s="136"/>
+      <c r="AG26" s="136"/>
+      <c r="AH26" s="136"/>
+      <c r="AI26" s="136"/>
+      <c r="AJ26" s="144">
         <f t="shared" ref="AJ26:AJ44" si="0">W26+AE26</f>
         <v>0</v>
       </c>
-      <c r="AK26" s="165"/>
+      <c r="AK26" s="145"/>
     </row>
     <row r="27" spans="1:45" s="36" customFormat="1" ht="27.75" customHeight="1">
       <c r="A27" s="54">
         <v>3</v>
       </c>
-      <c r="B27" s="166" t="str">
+      <c r="B27" s="133" t="str">
         <f>IF(I27="","",VLOOKUP(I27,#REF!,2,0))</f>
         <v/>
       </c>
-      <c r="C27" s="167"/>
-      <c r="D27" s="167"/>
-      <c r="E27" s="167"/>
-      <c r="F27" s="167"/>
-      <c r="G27" s="167"/>
-      <c r="H27" s="167"/>
-      <c r="I27" s="167"/>
-      <c r="J27" s="167"/>
-      <c r="K27" s="167"/>
-      <c r="L27" s="167"/>
-      <c r="M27" s="167"/>
-      <c r="N27" s="167"/>
-      <c r="O27" s="168"/>
-      <c r="P27" s="168"/>
-      <c r="Q27" s="168"/>
-      <c r="R27" s="168"/>
-      <c r="S27" s="168"/>
-      <c r="T27" s="168"/>
-      <c r="U27" s="168"/>
-      <c r="V27" s="168"/>
-      <c r="W27" s="168">
+      <c r="C27" s="134"/>
+      <c r="D27" s="134"/>
+      <c r="E27" s="134"/>
+      <c r="F27" s="134"/>
+      <c r="G27" s="134"/>
+      <c r="H27" s="134"/>
+      <c r="I27" s="134"/>
+      <c r="J27" s="134"/>
+      <c r="K27" s="134"/>
+      <c r="L27" s="134"/>
+      <c r="M27" s="134"/>
+      <c r="N27" s="134"/>
+      <c r="O27" s="136"/>
+      <c r="P27" s="136"/>
+      <c r="Q27" s="136"/>
+      <c r="R27" s="136"/>
+      <c r="S27" s="136"/>
+      <c r="T27" s="136"/>
+      <c r="U27" s="136"/>
+      <c r="V27" s="136"/>
+      <c r="W27" s="136">
         <f>O27*U27</f>
         <v>0</v>
       </c>
-      <c r="X27" s="168"/>
-      <c r="Y27" s="168"/>
-      <c r="Z27" s="168"/>
-      <c r="AA27" s="168"/>
-      <c r="AB27" s="168"/>
-      <c r="AC27" s="168"/>
-      <c r="AD27" s="168"/>
-      <c r="AE27" s="168">
-        <v>0</v>
-      </c>
-      <c r="AF27" s="168"/>
-      <c r="AG27" s="168"/>
-      <c r="AH27" s="168"/>
-      <c r="AI27" s="168"/>
-      <c r="AJ27" s="164">
+      <c r="X27" s="136"/>
+      <c r="Y27" s="136"/>
+      <c r="Z27" s="136"/>
+      <c r="AA27" s="136"/>
+      <c r="AB27" s="136"/>
+      <c r="AC27" s="136"/>
+      <c r="AD27" s="136"/>
+      <c r="AE27" s="136">
+        <v>0</v>
+      </c>
+      <c r="AF27" s="136"/>
+      <c r="AG27" s="136"/>
+      <c r="AH27" s="136"/>
+      <c r="AI27" s="136"/>
+      <c r="AJ27" s="144">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AK27" s="165"/>
+      <c r="AK27" s="145"/>
     </row>
     <row r="28" spans="1:45" s="36" customFormat="1" ht="27.75" customHeight="1">
       <c r="A28" s="54">
         <v>4</v>
       </c>
-      <c r="B28" s="166" t="str">
+      <c r="B28" s="133" t="str">
         <f>IF(I28="","",VLOOKUP(I28,#REF!,2,0))</f>
         <v/>
       </c>
-      <c r="C28" s="167"/>
-      <c r="D28" s="167"/>
-      <c r="E28" s="167"/>
-      <c r="F28" s="167"/>
-      <c r="G28" s="167"/>
-      <c r="H28" s="167"/>
-      <c r="I28" s="167"/>
-      <c r="J28" s="167"/>
-      <c r="K28" s="167"/>
-      <c r="L28" s="167"/>
-      <c r="M28" s="167"/>
-      <c r="N28" s="167"/>
-      <c r="O28" s="168"/>
-      <c r="P28" s="168"/>
-      <c r="Q28" s="168"/>
-      <c r="R28" s="168"/>
-      <c r="S28" s="168"/>
-      <c r="T28" s="168"/>
-      <c r="U28" s="168"/>
-      <c r="V28" s="168"/>
-      <c r="W28" s="168">
+      <c r="C28" s="134"/>
+      <c r="D28" s="134"/>
+      <c r="E28" s="134"/>
+      <c r="F28" s="134"/>
+      <c r="G28" s="134"/>
+      <c r="H28" s="134"/>
+      <c r="I28" s="134"/>
+      <c r="J28" s="134"/>
+      <c r="K28" s="134"/>
+      <c r="L28" s="134"/>
+      <c r="M28" s="134"/>
+      <c r="N28" s="134"/>
+      <c r="O28" s="136"/>
+      <c r="P28" s="136"/>
+      <c r="Q28" s="136"/>
+      <c r="R28" s="136"/>
+      <c r="S28" s="136"/>
+      <c r="T28" s="136"/>
+      <c r="U28" s="136"/>
+      <c r="V28" s="136"/>
+      <c r="W28" s="136">
         <f>O28*U28</f>
         <v>0</v>
       </c>
-      <c r="X28" s="168"/>
-      <c r="Y28" s="168"/>
-      <c r="Z28" s="168"/>
-      <c r="AA28" s="168"/>
-      <c r="AB28" s="168"/>
-      <c r="AC28" s="168"/>
-      <c r="AD28" s="168"/>
-      <c r="AE28" s="168">
-        <v>0</v>
-      </c>
-      <c r="AF28" s="168"/>
-      <c r="AG28" s="168"/>
-      <c r="AH28" s="168"/>
-      <c r="AI28" s="168"/>
-      <c r="AJ28" s="164">
+      <c r="X28" s="136"/>
+      <c r="Y28" s="136"/>
+      <c r="Z28" s="136"/>
+      <c r="AA28" s="136"/>
+      <c r="AB28" s="136"/>
+      <c r="AC28" s="136"/>
+      <c r="AD28" s="136"/>
+      <c r="AE28" s="136">
+        <v>0</v>
+      </c>
+      <c r="AF28" s="136"/>
+      <c r="AG28" s="136"/>
+      <c r="AH28" s="136"/>
+      <c r="AI28" s="136"/>
+      <c r="AJ28" s="144">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AK28" s="165"/>
+      <c r="AK28" s="145"/>
     </row>
     <row r="29" spans="1:45" s="36" customFormat="1" ht="27.75" customHeight="1">
       <c r="A29" s="54">
         <v>5</v>
       </c>
-      <c r="B29" s="166" t="str">
+      <c r="B29" s="133" t="str">
         <f>IF(I29="","",VLOOKUP(I29,#REF!,2,0))</f>
         <v/>
       </c>
-      <c r="C29" s="167"/>
-      <c r="D29" s="167"/>
-      <c r="E29" s="167"/>
-      <c r="F29" s="167"/>
-      <c r="G29" s="167"/>
-      <c r="H29" s="167"/>
-      <c r="I29" s="182"/>
-      <c r="J29" s="182"/>
-      <c r="K29" s="182"/>
-      <c r="L29" s="182"/>
-      <c r="M29" s="182"/>
-      <c r="N29" s="182"/>
-      <c r="O29" s="168"/>
-      <c r="P29" s="168"/>
-      <c r="Q29" s="168"/>
-      <c r="R29" s="168"/>
-      <c r="S29" s="168"/>
-      <c r="T29" s="168"/>
-      <c r="U29" s="168"/>
-      <c r="V29" s="168"/>
-      <c r="W29" s="168">
+      <c r="C29" s="134"/>
+      <c r="D29" s="134"/>
+      <c r="E29" s="134"/>
+      <c r="F29" s="134"/>
+      <c r="G29" s="134"/>
+      <c r="H29" s="134"/>
+      <c r="I29" s="146"/>
+      <c r="J29" s="146"/>
+      <c r="K29" s="146"/>
+      <c r="L29" s="146"/>
+      <c r="M29" s="146"/>
+      <c r="N29" s="146"/>
+      <c r="O29" s="136"/>
+      <c r="P29" s="136"/>
+      <c r="Q29" s="136"/>
+      <c r="R29" s="136"/>
+      <c r="S29" s="136"/>
+      <c r="T29" s="136"/>
+      <c r="U29" s="136"/>
+      <c r="V29" s="136"/>
+      <c r="W29" s="136">
         <f>O29*U29</f>
         <v>0</v>
       </c>
-      <c r="X29" s="168"/>
-      <c r="Y29" s="168"/>
-      <c r="Z29" s="168"/>
-      <c r="AA29" s="168"/>
-      <c r="AB29" s="168"/>
-      <c r="AC29" s="168"/>
-      <c r="AD29" s="168"/>
-      <c r="AE29" s="168">
-        <v>0</v>
-      </c>
-      <c r="AF29" s="168"/>
-      <c r="AG29" s="168"/>
-      <c r="AH29" s="168"/>
-      <c r="AI29" s="168"/>
-      <c r="AJ29" s="164">
+      <c r="X29" s="136"/>
+      <c r="Y29" s="136"/>
+      <c r="Z29" s="136"/>
+      <c r="AA29" s="136"/>
+      <c r="AB29" s="136"/>
+      <c r="AC29" s="136"/>
+      <c r="AD29" s="136"/>
+      <c r="AE29" s="136">
+        <v>0</v>
+      </c>
+      <c r="AF29" s="136"/>
+      <c r="AG29" s="136"/>
+      <c r="AH29" s="136"/>
+      <c r="AI29" s="136"/>
+      <c r="AJ29" s="144">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AK29" s="165"/>
+      <c r="AK29" s="145"/>
       <c r="AL29" s="108" t="s">
         <v>44</v>
       </c>
@@ -3770,106 +3828,106 @@
       <c r="A30" s="54">
         <v>6</v>
       </c>
-      <c r="B30" s="166" t="str">
+      <c r="B30" s="133" t="str">
         <f>IF(I30="","",VLOOKUP(I30,#REF!,2,0))</f>
         <v/>
       </c>
-      <c r="C30" s="167"/>
-      <c r="D30" s="167"/>
-      <c r="E30" s="167"/>
-      <c r="F30" s="167"/>
-      <c r="G30" s="167"/>
-      <c r="H30" s="167"/>
-      <c r="I30" s="167"/>
-      <c r="J30" s="167"/>
-      <c r="K30" s="167"/>
-      <c r="L30" s="167"/>
-      <c r="M30" s="167"/>
-      <c r="N30" s="167"/>
-      <c r="O30" s="168"/>
-      <c r="P30" s="168"/>
-      <c r="Q30" s="168"/>
-      <c r="R30" s="168"/>
-      <c r="S30" s="168"/>
-      <c r="T30" s="168"/>
-      <c r="U30" s="168"/>
-      <c r="V30" s="168"/>
-      <c r="W30" s="168">
+      <c r="C30" s="134"/>
+      <c r="D30" s="134"/>
+      <c r="E30" s="134"/>
+      <c r="F30" s="134"/>
+      <c r="G30" s="134"/>
+      <c r="H30" s="134"/>
+      <c r="I30" s="134"/>
+      <c r="J30" s="134"/>
+      <c r="K30" s="134"/>
+      <c r="L30" s="134"/>
+      <c r="M30" s="134"/>
+      <c r="N30" s="134"/>
+      <c r="O30" s="136"/>
+      <c r="P30" s="136"/>
+      <c r="Q30" s="136"/>
+      <c r="R30" s="136"/>
+      <c r="S30" s="136"/>
+      <c r="T30" s="136"/>
+      <c r="U30" s="136"/>
+      <c r="V30" s="136"/>
+      <c r="W30" s="136">
         <f t="shared" ref="W30:W35" si="1">O30*U30</f>
         <v>0</v>
       </c>
-      <c r="X30" s="168"/>
-      <c r="Y30" s="168"/>
-      <c r="Z30" s="168"/>
-      <c r="AA30" s="168"/>
-      <c r="AB30" s="168"/>
-      <c r="AC30" s="168"/>
-      <c r="AD30" s="168"/>
-      <c r="AE30" s="168">
-        <v>0</v>
-      </c>
-      <c r="AF30" s="168"/>
-      <c r="AG30" s="168"/>
-      <c r="AH30" s="168"/>
-      <c r="AI30" s="168"/>
-      <c r="AJ30" s="164">
+      <c r="X30" s="136"/>
+      <c r="Y30" s="136"/>
+      <c r="Z30" s="136"/>
+      <c r="AA30" s="136"/>
+      <c r="AB30" s="136"/>
+      <c r="AC30" s="136"/>
+      <c r="AD30" s="136"/>
+      <c r="AE30" s="136">
+        <v>0</v>
+      </c>
+      <c r="AF30" s="136"/>
+      <c r="AG30" s="136"/>
+      <c r="AH30" s="136"/>
+      <c r="AI30" s="136"/>
+      <c r="AJ30" s="144">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AK30" s="165"/>
+      <c r="AK30" s="145"/>
       <c r="AL30" s="108"/>
     </row>
     <row r="31" spans="1:45" s="36" customFormat="1" ht="27.75" customHeight="1">
       <c r="A31" s="54">
         <v>7</v>
       </c>
-      <c r="B31" s="166" t="str">
+      <c r="B31" s="133" t="str">
         <f>IF(I31="","",VLOOKUP(I31,#REF!,2,0))</f>
         <v/>
       </c>
-      <c r="C31" s="167"/>
-      <c r="D31" s="167"/>
-      <c r="E31" s="167"/>
-      <c r="F31" s="167"/>
-      <c r="G31" s="167"/>
-      <c r="H31" s="167"/>
-      <c r="I31" s="167"/>
-      <c r="J31" s="167"/>
-      <c r="K31" s="167"/>
-      <c r="L31" s="167"/>
-      <c r="M31" s="167"/>
-      <c r="N31" s="167"/>
-      <c r="O31" s="168"/>
-      <c r="P31" s="168"/>
-      <c r="Q31" s="168"/>
-      <c r="R31" s="168"/>
-      <c r="S31" s="168"/>
-      <c r="T31" s="168"/>
-      <c r="U31" s="168"/>
-      <c r="V31" s="168"/>
-      <c r="W31" s="168">
+      <c r="C31" s="134"/>
+      <c r="D31" s="134"/>
+      <c r="E31" s="134"/>
+      <c r="F31" s="134"/>
+      <c r="G31" s="134"/>
+      <c r="H31" s="134"/>
+      <c r="I31" s="134"/>
+      <c r="J31" s="134"/>
+      <c r="K31" s="134"/>
+      <c r="L31" s="134"/>
+      <c r="M31" s="134"/>
+      <c r="N31" s="134"/>
+      <c r="O31" s="136"/>
+      <c r="P31" s="136"/>
+      <c r="Q31" s="136"/>
+      <c r="R31" s="136"/>
+      <c r="S31" s="136"/>
+      <c r="T31" s="136"/>
+      <c r="U31" s="136"/>
+      <c r="V31" s="136"/>
+      <c r="W31" s="136">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="X31" s="168"/>
-      <c r="Y31" s="168"/>
-      <c r="Z31" s="168"/>
-      <c r="AA31" s="168"/>
-      <c r="AB31" s="168"/>
-      <c r="AC31" s="168"/>
-      <c r="AD31" s="168"/>
-      <c r="AE31" s="168">
-        <v>0</v>
-      </c>
-      <c r="AF31" s="168"/>
-      <c r="AG31" s="168"/>
-      <c r="AH31" s="168"/>
-      <c r="AI31" s="168"/>
-      <c r="AJ31" s="164">
+      <c r="X31" s="136"/>
+      <c r="Y31" s="136"/>
+      <c r="Z31" s="136"/>
+      <c r="AA31" s="136"/>
+      <c r="AB31" s="136"/>
+      <c r="AC31" s="136"/>
+      <c r="AD31" s="136"/>
+      <c r="AE31" s="136">
+        <v>0</v>
+      </c>
+      <c r="AF31" s="136"/>
+      <c r="AG31" s="136"/>
+      <c r="AH31" s="136"/>
+      <c r="AI31" s="136"/>
+      <c r="AJ31" s="144">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AK31" s="165"/>
+      <c r="AK31" s="145"/>
       <c r="AL31" s="108" t="s">
         <v>44</v>
       </c>
@@ -3878,53 +3936,53 @@
       <c r="A32" s="54">
         <v>8</v>
       </c>
-      <c r="B32" s="166" t="str">
+      <c r="B32" s="133" t="str">
         <f>IF(I32="","",VLOOKUP(I32,#REF!,2,0))</f>
         <v/>
       </c>
-      <c r="C32" s="167"/>
-      <c r="D32" s="167"/>
-      <c r="E32" s="167"/>
-      <c r="F32" s="167"/>
-      <c r="G32" s="167"/>
-      <c r="H32" s="167"/>
-      <c r="I32" s="167"/>
-      <c r="J32" s="167"/>
-      <c r="K32" s="167"/>
-      <c r="L32" s="167"/>
-      <c r="M32" s="167"/>
-      <c r="N32" s="167"/>
-      <c r="O32" s="168"/>
-      <c r="P32" s="168"/>
-      <c r="Q32" s="168"/>
-      <c r="R32" s="168"/>
-      <c r="S32" s="168"/>
-      <c r="T32" s="168"/>
-      <c r="U32" s="168"/>
-      <c r="V32" s="168"/>
-      <c r="W32" s="168">
+      <c r="C32" s="134"/>
+      <c r="D32" s="134"/>
+      <c r="E32" s="134"/>
+      <c r="F32" s="134"/>
+      <c r="G32" s="134"/>
+      <c r="H32" s="134"/>
+      <c r="I32" s="134"/>
+      <c r="J32" s="134"/>
+      <c r="K32" s="134"/>
+      <c r="L32" s="134"/>
+      <c r="M32" s="134"/>
+      <c r="N32" s="134"/>
+      <c r="O32" s="136"/>
+      <c r="P32" s="136"/>
+      <c r="Q32" s="136"/>
+      <c r="R32" s="136"/>
+      <c r="S32" s="136"/>
+      <c r="T32" s="136"/>
+      <c r="U32" s="136"/>
+      <c r="V32" s="136"/>
+      <c r="W32" s="136">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="X32" s="168"/>
-      <c r="Y32" s="168"/>
-      <c r="Z32" s="168"/>
-      <c r="AA32" s="168"/>
-      <c r="AB32" s="168"/>
-      <c r="AC32" s="168"/>
-      <c r="AD32" s="168"/>
-      <c r="AE32" s="168">
-        <v>0</v>
-      </c>
-      <c r="AF32" s="168"/>
-      <c r="AG32" s="168"/>
-      <c r="AH32" s="168"/>
-      <c r="AI32" s="168"/>
-      <c r="AJ32" s="164">
+      <c r="X32" s="136"/>
+      <c r="Y32" s="136"/>
+      <c r="Z32" s="136"/>
+      <c r="AA32" s="136"/>
+      <c r="AB32" s="136"/>
+      <c r="AC32" s="136"/>
+      <c r="AD32" s="136"/>
+      <c r="AE32" s="136">
+        <v>0</v>
+      </c>
+      <c r="AF32" s="136"/>
+      <c r="AG32" s="136"/>
+      <c r="AH32" s="136"/>
+      <c r="AI32" s="136"/>
+      <c r="AJ32" s="144">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AK32" s="165"/>
+      <c r="AK32" s="145"/>
       <c r="AL32" s="108" t="s">
         <v>44</v>
       </c>
@@ -3933,574 +3991,574 @@
       <c r="A33" s="54">
         <v>9</v>
       </c>
-      <c r="B33" s="166" t="str">
+      <c r="B33" s="133" t="str">
         <f>IF(I33="","",VLOOKUP(I33,#REF!,2,0))</f>
         <v/>
       </c>
-      <c r="C33" s="167"/>
-      <c r="D33" s="167"/>
-      <c r="E33" s="167"/>
-      <c r="F33" s="167"/>
-      <c r="G33" s="167"/>
-      <c r="H33" s="167"/>
-      <c r="I33" s="167"/>
-      <c r="J33" s="167"/>
-      <c r="K33" s="167"/>
-      <c r="L33" s="167"/>
-      <c r="M33" s="167"/>
-      <c r="N33" s="167"/>
-      <c r="O33" s="168"/>
-      <c r="P33" s="168"/>
-      <c r="Q33" s="168"/>
-      <c r="R33" s="168"/>
-      <c r="S33" s="168"/>
-      <c r="T33" s="168"/>
-      <c r="U33" s="168"/>
-      <c r="V33" s="168"/>
-      <c r="W33" s="168">
+      <c r="C33" s="134"/>
+      <c r="D33" s="134"/>
+      <c r="E33" s="134"/>
+      <c r="F33" s="134"/>
+      <c r="G33" s="134"/>
+      <c r="H33" s="134"/>
+      <c r="I33" s="134"/>
+      <c r="J33" s="134"/>
+      <c r="K33" s="134"/>
+      <c r="L33" s="134"/>
+      <c r="M33" s="134"/>
+      <c r="N33" s="134"/>
+      <c r="O33" s="136"/>
+      <c r="P33" s="136"/>
+      <c r="Q33" s="136"/>
+      <c r="R33" s="136"/>
+      <c r="S33" s="136"/>
+      <c r="T33" s="136"/>
+      <c r="U33" s="136"/>
+      <c r="V33" s="136"/>
+      <c r="W33" s="136">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="X33" s="168"/>
-      <c r="Y33" s="168"/>
-      <c r="Z33" s="168"/>
-      <c r="AA33" s="168"/>
-      <c r="AB33" s="168"/>
-      <c r="AC33" s="168"/>
-      <c r="AD33" s="168"/>
-      <c r="AE33" s="168">
-        <v>0</v>
-      </c>
-      <c r="AF33" s="168"/>
-      <c r="AG33" s="168"/>
-      <c r="AH33" s="168"/>
-      <c r="AI33" s="168"/>
-      <c r="AJ33" s="164">
+      <c r="X33" s="136"/>
+      <c r="Y33" s="136"/>
+      <c r="Z33" s="136"/>
+      <c r="AA33" s="136"/>
+      <c r="AB33" s="136"/>
+      <c r="AC33" s="136"/>
+      <c r="AD33" s="136"/>
+      <c r="AE33" s="136">
+        <v>0</v>
+      </c>
+      <c r="AF33" s="136"/>
+      <c r="AG33" s="136"/>
+      <c r="AH33" s="136"/>
+      <c r="AI33" s="136"/>
+      <c r="AJ33" s="144">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AK33" s="165"/>
+      <c r="AK33" s="145"/>
       <c r="AL33" s="108"/>
     </row>
     <row r="34" spans="1:256" s="36" customFormat="1" ht="27.75" customHeight="1">
       <c r="A34" s="54">
         <v>10</v>
       </c>
-      <c r="B34" s="166" t="str">
+      <c r="B34" s="133" t="str">
         <f>IF(I34="","",VLOOKUP(I34,#REF!,2,0))</f>
         <v/>
       </c>
-      <c r="C34" s="167"/>
-      <c r="D34" s="167"/>
-      <c r="E34" s="167"/>
-      <c r="F34" s="167"/>
-      <c r="G34" s="167"/>
-      <c r="H34" s="167"/>
-      <c r="I34" s="167"/>
-      <c r="J34" s="167"/>
-      <c r="K34" s="167"/>
-      <c r="L34" s="167"/>
-      <c r="M34" s="167"/>
-      <c r="N34" s="167"/>
-      <c r="O34" s="168"/>
-      <c r="P34" s="168"/>
-      <c r="Q34" s="168"/>
-      <c r="R34" s="168"/>
-      <c r="S34" s="168"/>
-      <c r="T34" s="168"/>
-      <c r="U34" s="168"/>
-      <c r="V34" s="168"/>
-      <c r="W34" s="168">
+      <c r="C34" s="134"/>
+      <c r="D34" s="134"/>
+      <c r="E34" s="134"/>
+      <c r="F34" s="134"/>
+      <c r="G34" s="134"/>
+      <c r="H34" s="134"/>
+      <c r="I34" s="134"/>
+      <c r="J34" s="134"/>
+      <c r="K34" s="134"/>
+      <c r="L34" s="134"/>
+      <c r="M34" s="134"/>
+      <c r="N34" s="134"/>
+      <c r="O34" s="136"/>
+      <c r="P34" s="136"/>
+      <c r="Q34" s="136"/>
+      <c r="R34" s="136"/>
+      <c r="S34" s="136"/>
+      <c r="T34" s="136"/>
+      <c r="U34" s="136"/>
+      <c r="V34" s="136"/>
+      <c r="W34" s="136">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="X34" s="168"/>
-      <c r="Y34" s="168"/>
-      <c r="Z34" s="168"/>
-      <c r="AA34" s="168"/>
-      <c r="AB34" s="168"/>
-      <c r="AC34" s="168"/>
-      <c r="AD34" s="168"/>
-      <c r="AE34" s="168">
-        <v>0</v>
-      </c>
-      <c r="AF34" s="168"/>
-      <c r="AG34" s="168"/>
-      <c r="AH34" s="168"/>
-      <c r="AI34" s="168"/>
-      <c r="AJ34" s="164">
+      <c r="X34" s="136"/>
+      <c r="Y34" s="136"/>
+      <c r="Z34" s="136"/>
+      <c r="AA34" s="136"/>
+      <c r="AB34" s="136"/>
+      <c r="AC34" s="136"/>
+      <c r="AD34" s="136"/>
+      <c r="AE34" s="136">
+        <v>0</v>
+      </c>
+      <c r="AF34" s="136"/>
+      <c r="AG34" s="136"/>
+      <c r="AH34" s="136"/>
+      <c r="AI34" s="136"/>
+      <c r="AJ34" s="144">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AK34" s="165"/>
+      <c r="AK34" s="145"/>
     </row>
     <row r="35" spans="1:256" s="36" customFormat="1" ht="27.75" customHeight="1">
       <c r="A35" s="54">
         <v>11</v>
       </c>
-      <c r="B35" s="166" t="str">
+      <c r="B35" s="133" t="str">
         <f>IF(I35="","",VLOOKUP(I35,#REF!,2,0))</f>
         <v/>
       </c>
-      <c r="C35" s="167"/>
-      <c r="D35" s="167"/>
-      <c r="E35" s="167"/>
-      <c r="F35" s="167"/>
-      <c r="G35" s="167"/>
-      <c r="H35" s="167"/>
-      <c r="I35" s="167"/>
-      <c r="J35" s="167"/>
-      <c r="K35" s="167"/>
-      <c r="L35" s="167"/>
-      <c r="M35" s="167"/>
-      <c r="N35" s="167"/>
-      <c r="O35" s="168"/>
-      <c r="P35" s="168"/>
-      <c r="Q35" s="168"/>
-      <c r="R35" s="168"/>
-      <c r="S35" s="168"/>
-      <c r="T35" s="168"/>
-      <c r="U35" s="168"/>
-      <c r="V35" s="168"/>
-      <c r="W35" s="168">
+      <c r="C35" s="134"/>
+      <c r="D35" s="134"/>
+      <c r="E35" s="134"/>
+      <c r="F35" s="134"/>
+      <c r="G35" s="134"/>
+      <c r="H35" s="134"/>
+      <c r="I35" s="134"/>
+      <c r="J35" s="134"/>
+      <c r="K35" s="134"/>
+      <c r="L35" s="134"/>
+      <c r="M35" s="134"/>
+      <c r="N35" s="134"/>
+      <c r="O35" s="136"/>
+      <c r="P35" s="136"/>
+      <c r="Q35" s="136"/>
+      <c r="R35" s="136"/>
+      <c r="S35" s="136"/>
+      <c r="T35" s="136"/>
+      <c r="U35" s="136"/>
+      <c r="V35" s="136"/>
+      <c r="W35" s="136">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="X35" s="168"/>
-      <c r="Y35" s="168"/>
-      <c r="Z35" s="168"/>
-      <c r="AA35" s="168"/>
-      <c r="AB35" s="168"/>
-      <c r="AC35" s="168"/>
-      <c r="AD35" s="168"/>
-      <c r="AE35" s="168">
-        <v>0</v>
-      </c>
-      <c r="AF35" s="168"/>
-      <c r="AG35" s="168"/>
-      <c r="AH35" s="168"/>
-      <c r="AI35" s="168"/>
-      <c r="AJ35" s="164">
+      <c r="X35" s="136"/>
+      <c r="Y35" s="136"/>
+      <c r="Z35" s="136"/>
+      <c r="AA35" s="136"/>
+      <c r="AB35" s="136"/>
+      <c r="AC35" s="136"/>
+      <c r="AD35" s="136"/>
+      <c r="AE35" s="136">
+        <v>0</v>
+      </c>
+      <c r="AF35" s="136"/>
+      <c r="AG35" s="136"/>
+      <c r="AH35" s="136"/>
+      <c r="AI35" s="136"/>
+      <c r="AJ35" s="144">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AK35" s="165"/>
+      <c r="AK35" s="145"/>
     </row>
     <row r="36" spans="1:256" s="36" customFormat="1" ht="27.75" customHeight="1">
       <c r="A36" s="54">
         <v>12</v>
       </c>
-      <c r="B36" s="166" t="str">
+      <c r="B36" s="133" t="str">
         <f>IF(I36="","",VLOOKUP(I36,#REF!,2,0))</f>
         <v/>
       </c>
-      <c r="C36" s="167"/>
-      <c r="D36" s="167"/>
-      <c r="E36" s="167"/>
-      <c r="F36" s="167"/>
-      <c r="G36" s="167"/>
-      <c r="H36" s="167"/>
-      <c r="I36" s="167"/>
-      <c r="J36" s="167"/>
-      <c r="K36" s="167"/>
-      <c r="L36" s="167"/>
-      <c r="M36" s="167"/>
-      <c r="N36" s="167"/>
-      <c r="O36" s="168"/>
-      <c r="P36" s="168"/>
-      <c r="Q36" s="168"/>
-      <c r="R36" s="168"/>
-      <c r="S36" s="168"/>
-      <c r="T36" s="168"/>
-      <c r="U36" s="168"/>
-      <c r="V36" s="168"/>
-      <c r="W36" s="181">
-        <f t="shared" ref="W36:W41" si="2">O36*U36</f>
-        <v>0</v>
-      </c>
-      <c r="X36" s="183"/>
-      <c r="Y36" s="183"/>
-      <c r="Z36" s="183"/>
-      <c r="AA36" s="183"/>
-      <c r="AB36" s="183"/>
-      <c r="AC36" s="183"/>
-      <c r="AD36" s="184"/>
-      <c r="AE36" s="168">
-        <v>0</v>
-      </c>
-      <c r="AF36" s="168"/>
-      <c r="AG36" s="168"/>
-      <c r="AH36" s="168"/>
-      <c r="AI36" s="168"/>
-      <c r="AJ36" s="164">
+      <c r="C36" s="134"/>
+      <c r="D36" s="134"/>
+      <c r="E36" s="134"/>
+      <c r="F36" s="134"/>
+      <c r="G36" s="134"/>
+      <c r="H36" s="134"/>
+      <c r="I36" s="134"/>
+      <c r="J36" s="134"/>
+      <c r="K36" s="134"/>
+      <c r="L36" s="134"/>
+      <c r="M36" s="134"/>
+      <c r="N36" s="134"/>
+      <c r="O36" s="136"/>
+      <c r="P36" s="136"/>
+      <c r="Q36" s="136"/>
+      <c r="R36" s="136"/>
+      <c r="S36" s="136"/>
+      <c r="T36" s="136"/>
+      <c r="U36" s="136"/>
+      <c r="V36" s="136"/>
+      <c r="W36" s="138">
+        <f t="shared" ref="W36:W40" si="2">O36*U36</f>
+        <v>0</v>
+      </c>
+      <c r="X36" s="139"/>
+      <c r="Y36" s="139"/>
+      <c r="Z36" s="139"/>
+      <c r="AA36" s="139"/>
+      <c r="AB36" s="139"/>
+      <c r="AC36" s="139"/>
+      <c r="AD36" s="140"/>
+      <c r="AE36" s="136">
+        <v>0</v>
+      </c>
+      <c r="AF36" s="136"/>
+      <c r="AG36" s="136"/>
+      <c r="AH36" s="136"/>
+      <c r="AI36" s="136"/>
+      <c r="AJ36" s="144">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AK36" s="165"/>
+      <c r="AK36" s="145"/>
     </row>
     <row r="37" spans="1:256" s="36" customFormat="1" ht="27.75" customHeight="1">
       <c r="A37" s="54">
         <v>13</v>
       </c>
-      <c r="B37" s="166" t="str">
+      <c r="B37" s="133" t="str">
         <f>IF(I37="","",VLOOKUP(I37,#REF!,2,0))</f>
         <v/>
       </c>
-      <c r="C37" s="167"/>
-      <c r="D37" s="167"/>
-      <c r="E37" s="167"/>
-      <c r="F37" s="167"/>
-      <c r="G37" s="167"/>
-      <c r="H37" s="167"/>
-      <c r="I37" s="167"/>
-      <c r="J37" s="167"/>
-      <c r="K37" s="167"/>
-      <c r="L37" s="167"/>
-      <c r="M37" s="167"/>
-      <c r="N37" s="167"/>
-      <c r="O37" s="168"/>
-      <c r="P37" s="168"/>
-      <c r="Q37" s="168"/>
-      <c r="R37" s="168"/>
-      <c r="S37" s="168"/>
-      <c r="T37" s="168"/>
-      <c r="U37" s="168"/>
-      <c r="V37" s="168"/>
-      <c r="W37" s="181">
+      <c r="C37" s="134"/>
+      <c r="D37" s="134"/>
+      <c r="E37" s="134"/>
+      <c r="F37" s="134"/>
+      <c r="G37" s="134"/>
+      <c r="H37" s="134"/>
+      <c r="I37" s="134"/>
+      <c r="J37" s="134"/>
+      <c r="K37" s="134"/>
+      <c r="L37" s="134"/>
+      <c r="M37" s="134"/>
+      <c r="N37" s="134"/>
+      <c r="O37" s="136"/>
+      <c r="P37" s="136"/>
+      <c r="Q37" s="136"/>
+      <c r="R37" s="136"/>
+      <c r="S37" s="136"/>
+      <c r="T37" s="136"/>
+      <c r="U37" s="136"/>
+      <c r="V37" s="136"/>
+      <c r="W37" s="138">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="X37" s="183"/>
-      <c r="Y37" s="183"/>
-      <c r="Z37" s="183"/>
-      <c r="AA37" s="183"/>
-      <c r="AB37" s="183"/>
-      <c r="AC37" s="183"/>
-      <c r="AD37" s="184"/>
-      <c r="AE37" s="168">
-        <v>0</v>
-      </c>
-      <c r="AF37" s="168"/>
-      <c r="AG37" s="168"/>
-      <c r="AH37" s="168"/>
-      <c r="AI37" s="168"/>
-      <c r="AJ37" s="164">
+      <c r="X37" s="139"/>
+      <c r="Y37" s="139"/>
+      <c r="Z37" s="139"/>
+      <c r="AA37" s="139"/>
+      <c r="AB37" s="139"/>
+      <c r="AC37" s="139"/>
+      <c r="AD37" s="140"/>
+      <c r="AE37" s="136">
+        <v>0</v>
+      </c>
+      <c r="AF37" s="136"/>
+      <c r="AG37" s="136"/>
+      <c r="AH37" s="136"/>
+      <c r="AI37" s="136"/>
+      <c r="AJ37" s="144">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AK37" s="165"/>
+      <c r="AK37" s="145"/>
     </row>
     <row r="38" spans="1:256" s="36" customFormat="1" ht="27.75" customHeight="1">
       <c r="A38" s="54">
         <v>14</v>
       </c>
-      <c r="B38" s="166" t="str">
+      <c r="B38" s="133" t="str">
         <f>IF(I38="","",VLOOKUP(I38,#REF!,2,0))</f>
         <v/>
       </c>
-      <c r="C38" s="167"/>
-      <c r="D38" s="167"/>
-      <c r="E38" s="167"/>
-      <c r="F38" s="167"/>
-      <c r="G38" s="167"/>
-      <c r="H38" s="167"/>
-      <c r="I38" s="167"/>
-      <c r="J38" s="167"/>
-      <c r="K38" s="167"/>
-      <c r="L38" s="167"/>
-      <c r="M38" s="167"/>
-      <c r="N38" s="167"/>
-      <c r="O38" s="168"/>
-      <c r="P38" s="168"/>
-      <c r="Q38" s="168"/>
-      <c r="R38" s="168"/>
-      <c r="S38" s="168"/>
-      <c r="T38" s="168"/>
-      <c r="U38" s="168"/>
-      <c r="V38" s="168"/>
-      <c r="W38" s="181">
+      <c r="C38" s="134"/>
+      <c r="D38" s="134"/>
+      <c r="E38" s="134"/>
+      <c r="F38" s="134"/>
+      <c r="G38" s="134"/>
+      <c r="H38" s="134"/>
+      <c r="I38" s="134"/>
+      <c r="J38" s="134"/>
+      <c r="K38" s="134"/>
+      <c r="L38" s="134"/>
+      <c r="M38" s="134"/>
+      <c r="N38" s="134"/>
+      <c r="O38" s="136"/>
+      <c r="P38" s="136"/>
+      <c r="Q38" s="136"/>
+      <c r="R38" s="136"/>
+      <c r="S38" s="136"/>
+      <c r="T38" s="136"/>
+      <c r="U38" s="136"/>
+      <c r="V38" s="136"/>
+      <c r="W38" s="138">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="X38" s="183"/>
-      <c r="Y38" s="183"/>
-      <c r="Z38" s="183"/>
-      <c r="AA38" s="183"/>
-      <c r="AB38" s="183"/>
-      <c r="AC38" s="183"/>
-      <c r="AD38" s="184"/>
-      <c r="AE38" s="168">
-        <v>0</v>
-      </c>
-      <c r="AF38" s="168"/>
-      <c r="AG38" s="168"/>
-      <c r="AH38" s="168"/>
-      <c r="AI38" s="168"/>
-      <c r="AJ38" s="164">
+      <c r="X38" s="139"/>
+      <c r="Y38" s="139"/>
+      <c r="Z38" s="139"/>
+      <c r="AA38" s="139"/>
+      <c r="AB38" s="139"/>
+      <c r="AC38" s="139"/>
+      <c r="AD38" s="140"/>
+      <c r="AE38" s="136">
+        <v>0</v>
+      </c>
+      <c r="AF38" s="136"/>
+      <c r="AG38" s="136"/>
+      <c r="AH38" s="136"/>
+      <c r="AI38" s="136"/>
+      <c r="AJ38" s="144">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AK38" s="165"/>
+      <c r="AK38" s="145"/>
     </row>
     <row r="39" spans="1:256" s="36" customFormat="1" ht="27.75" customHeight="1">
       <c r="A39" s="54">
         <v>15</v>
       </c>
-      <c r="B39" s="166" t="str">
+      <c r="B39" s="133" t="str">
         <f>IF(I39="","",VLOOKUP(I39,#REF!,2,0))</f>
         <v/>
       </c>
-      <c r="C39" s="167"/>
-      <c r="D39" s="167"/>
-      <c r="E39" s="167"/>
-      <c r="F39" s="167"/>
-      <c r="G39" s="167"/>
-      <c r="H39" s="167"/>
-      <c r="I39" s="167"/>
-      <c r="J39" s="167"/>
-      <c r="K39" s="167"/>
-      <c r="L39" s="167"/>
-      <c r="M39" s="167"/>
-      <c r="N39" s="167"/>
-      <c r="O39" s="168"/>
-      <c r="P39" s="168"/>
-      <c r="Q39" s="168"/>
-      <c r="R39" s="168"/>
-      <c r="S39" s="168"/>
-      <c r="T39" s="168"/>
-      <c r="U39" s="168"/>
-      <c r="V39" s="168"/>
-      <c r="W39" s="181">
+      <c r="C39" s="134"/>
+      <c r="D39" s="134"/>
+      <c r="E39" s="134"/>
+      <c r="F39" s="134"/>
+      <c r="G39" s="134"/>
+      <c r="H39" s="134"/>
+      <c r="I39" s="134"/>
+      <c r="J39" s="134"/>
+      <c r="K39" s="134"/>
+      <c r="L39" s="134"/>
+      <c r="M39" s="134"/>
+      <c r="N39" s="134"/>
+      <c r="O39" s="136"/>
+      <c r="P39" s="136"/>
+      <c r="Q39" s="136"/>
+      <c r="R39" s="136"/>
+      <c r="S39" s="136"/>
+      <c r="T39" s="136"/>
+      <c r="U39" s="136"/>
+      <c r="V39" s="136"/>
+      <c r="W39" s="138">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="X39" s="183"/>
-      <c r="Y39" s="183"/>
-      <c r="Z39" s="183"/>
-      <c r="AA39" s="183"/>
-      <c r="AB39" s="183"/>
-      <c r="AC39" s="183"/>
-      <c r="AD39" s="184"/>
-      <c r="AE39" s="168">
-        <v>0</v>
-      </c>
-      <c r="AF39" s="168"/>
-      <c r="AG39" s="168"/>
-      <c r="AH39" s="168"/>
-      <c r="AI39" s="168"/>
-      <c r="AJ39" s="164">
+      <c r="X39" s="139"/>
+      <c r="Y39" s="139"/>
+      <c r="Z39" s="139"/>
+      <c r="AA39" s="139"/>
+      <c r="AB39" s="139"/>
+      <c r="AC39" s="139"/>
+      <c r="AD39" s="140"/>
+      <c r="AE39" s="136">
+        <v>0</v>
+      </c>
+      <c r="AF39" s="136"/>
+      <c r="AG39" s="136"/>
+      <c r="AH39" s="136"/>
+      <c r="AI39" s="136"/>
+      <c r="AJ39" s="144">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AK39" s="165"/>
+      <c r="AK39" s="145"/>
     </row>
     <row r="40" spans="1:256" s="36" customFormat="1" ht="27.75" customHeight="1">
       <c r="A40" s="54">
         <v>16</v>
       </c>
-      <c r="B40" s="166" t="str">
+      <c r="B40" s="133" t="str">
         <f>IF(I40="","",VLOOKUP(I40,#REF!,2,0))</f>
         <v/>
       </c>
-      <c r="C40" s="167"/>
-      <c r="D40" s="167"/>
-      <c r="E40" s="167"/>
-      <c r="F40" s="167"/>
-      <c r="G40" s="167"/>
-      <c r="H40" s="167"/>
-      <c r="I40" s="167"/>
-      <c r="J40" s="167"/>
-      <c r="K40" s="167"/>
-      <c r="L40" s="167"/>
-      <c r="M40" s="167"/>
-      <c r="N40" s="167"/>
-      <c r="O40" s="168"/>
-      <c r="P40" s="168"/>
-      <c r="Q40" s="168"/>
-      <c r="R40" s="168"/>
-      <c r="S40" s="168"/>
-      <c r="T40" s="168"/>
-      <c r="U40" s="168"/>
-      <c r="V40" s="168"/>
-      <c r="W40" s="181">
+      <c r="C40" s="134"/>
+      <c r="D40" s="134"/>
+      <c r="E40" s="134"/>
+      <c r="F40" s="134"/>
+      <c r="G40" s="134"/>
+      <c r="H40" s="134"/>
+      <c r="I40" s="134"/>
+      <c r="J40" s="134"/>
+      <c r="K40" s="134"/>
+      <c r="L40" s="134"/>
+      <c r="M40" s="134"/>
+      <c r="N40" s="134"/>
+      <c r="O40" s="136"/>
+      <c r="P40" s="136"/>
+      <c r="Q40" s="136"/>
+      <c r="R40" s="136"/>
+      <c r="S40" s="136"/>
+      <c r="T40" s="136"/>
+      <c r="U40" s="136"/>
+      <c r="V40" s="136"/>
+      <c r="W40" s="138">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="X40" s="183"/>
-      <c r="Y40" s="183"/>
-      <c r="Z40" s="183"/>
-      <c r="AA40" s="183"/>
-      <c r="AB40" s="183"/>
-      <c r="AC40" s="183"/>
-      <c r="AD40" s="184"/>
-      <c r="AE40" s="168">
-        <v>0</v>
-      </c>
-      <c r="AF40" s="168"/>
-      <c r="AG40" s="168"/>
-      <c r="AH40" s="168"/>
-      <c r="AI40" s="168"/>
-      <c r="AJ40" s="164">
+      <c r="X40" s="139"/>
+      <c r="Y40" s="139"/>
+      <c r="Z40" s="139"/>
+      <c r="AA40" s="139"/>
+      <c r="AB40" s="139"/>
+      <c r="AC40" s="139"/>
+      <c r="AD40" s="140"/>
+      <c r="AE40" s="136">
+        <v>0</v>
+      </c>
+      <c r="AF40" s="136"/>
+      <c r="AG40" s="136"/>
+      <c r="AH40" s="136"/>
+      <c r="AI40" s="136"/>
+      <c r="AJ40" s="144">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AK40" s="165"/>
+      <c r="AK40" s="145"/>
     </row>
     <row r="41" spans="1:256" s="36" customFormat="1" ht="27.75" customHeight="1">
       <c r="A41" s="54">
         <v>17</v>
       </c>
-      <c r="B41" s="166" t="str">
+      <c r="B41" s="133" t="str">
         <f>IF(I41="","",VLOOKUP(I41,#REF!,2,0))</f>
         <v/>
       </c>
-      <c r="C41" s="167"/>
-      <c r="D41" s="167"/>
-      <c r="E41" s="167"/>
-      <c r="F41" s="167"/>
-      <c r="G41" s="167"/>
-      <c r="H41" s="167"/>
-      <c r="I41" s="167"/>
-      <c r="J41" s="167"/>
-      <c r="K41" s="167"/>
-      <c r="L41" s="167"/>
-      <c r="M41" s="167"/>
-      <c r="N41" s="167"/>
-      <c r="O41" s="168"/>
-      <c r="P41" s="168"/>
-      <c r="Q41" s="168"/>
-      <c r="R41" s="168"/>
-      <c r="S41" s="168"/>
-      <c r="T41" s="168"/>
-      <c r="U41" s="168"/>
-      <c r="V41" s="168"/>
-      <c r="W41" s="181">
+      <c r="C41" s="134"/>
+      <c r="D41" s="134"/>
+      <c r="E41" s="134"/>
+      <c r="F41" s="134"/>
+      <c r="G41" s="134"/>
+      <c r="H41" s="134"/>
+      <c r="I41" s="134"/>
+      <c r="J41" s="134"/>
+      <c r="K41" s="134"/>
+      <c r="L41" s="134"/>
+      <c r="M41" s="134"/>
+      <c r="N41" s="134"/>
+      <c r="O41" s="136"/>
+      <c r="P41" s="136"/>
+      <c r="Q41" s="136"/>
+      <c r="R41" s="136"/>
+      <c r="S41" s="136"/>
+      <c r="T41" s="136"/>
+      <c r="U41" s="136"/>
+      <c r="V41" s="136"/>
+      <c r="W41" s="138">
         <f t="shared" ref="W41:W44" si="3">O41*U41</f>
         <v>0</v>
       </c>
-      <c r="X41" s="183"/>
-      <c r="Y41" s="183"/>
-      <c r="Z41" s="183"/>
-      <c r="AA41" s="183"/>
-      <c r="AB41" s="183"/>
-      <c r="AC41" s="183"/>
-      <c r="AD41" s="184"/>
-      <c r="AE41" s="181">
-        <v>0</v>
-      </c>
-      <c r="AF41" s="183"/>
-      <c r="AG41" s="183"/>
-      <c r="AH41" s="183"/>
-      <c r="AI41" s="184"/>
-      <c r="AJ41" s="164">
+      <c r="X41" s="139"/>
+      <c r="Y41" s="139"/>
+      <c r="Z41" s="139"/>
+      <c r="AA41" s="139"/>
+      <c r="AB41" s="139"/>
+      <c r="AC41" s="139"/>
+      <c r="AD41" s="140"/>
+      <c r="AE41" s="138">
+        <v>0</v>
+      </c>
+      <c r="AF41" s="139"/>
+      <c r="AG41" s="139"/>
+      <c r="AH41" s="139"/>
+      <c r="AI41" s="140"/>
+      <c r="AJ41" s="144">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AK41" s="165"/>
+      <c r="AK41" s="145"/>
     </row>
     <row r="42" spans="1:256" s="36" customFormat="1" ht="27.75" customHeight="1">
       <c r="A42" s="54">
         <v>18</v>
       </c>
-      <c r="B42" s="166" t="str">
+      <c r="B42" s="133" t="str">
         <f>IF(I42="","",VLOOKUP(I42,#REF!,2,0))</f>
         <v/>
       </c>
-      <c r="C42" s="167"/>
-      <c r="D42" s="167"/>
-      <c r="E42" s="167"/>
-      <c r="F42" s="167"/>
-      <c r="G42" s="167"/>
-      <c r="H42" s="167"/>
-      <c r="I42" s="167"/>
-      <c r="J42" s="167"/>
-      <c r="K42" s="167"/>
-      <c r="L42" s="167"/>
-      <c r="M42" s="167"/>
-      <c r="N42" s="167"/>
-      <c r="O42" s="168"/>
-      <c r="P42" s="168"/>
-      <c r="Q42" s="168"/>
-      <c r="R42" s="168"/>
-      <c r="S42" s="168"/>
-      <c r="T42" s="168"/>
-      <c r="U42" s="168"/>
-      <c r="V42" s="168"/>
-      <c r="W42" s="181">
+      <c r="C42" s="134"/>
+      <c r="D42" s="134"/>
+      <c r="E42" s="134"/>
+      <c r="F42" s="134"/>
+      <c r="G42" s="134"/>
+      <c r="H42" s="134"/>
+      <c r="I42" s="134"/>
+      <c r="J42" s="134"/>
+      <c r="K42" s="134"/>
+      <c r="L42" s="134"/>
+      <c r="M42" s="134"/>
+      <c r="N42" s="134"/>
+      <c r="O42" s="136"/>
+      <c r="P42" s="136"/>
+      <c r="Q42" s="136"/>
+      <c r="R42" s="136"/>
+      <c r="S42" s="136"/>
+      <c r="T42" s="136"/>
+      <c r="U42" s="136"/>
+      <c r="V42" s="136"/>
+      <c r="W42" s="138">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="X42" s="183"/>
-      <c r="Y42" s="183"/>
-      <c r="Z42" s="183"/>
-      <c r="AA42" s="183"/>
-      <c r="AB42" s="183"/>
-      <c r="AC42" s="183"/>
-      <c r="AD42" s="184"/>
-      <c r="AE42" s="181">
-        <v>0</v>
-      </c>
-      <c r="AF42" s="183"/>
-      <c r="AG42" s="183"/>
-      <c r="AH42" s="183"/>
-      <c r="AI42" s="184"/>
-      <c r="AJ42" s="164">
+      <c r="X42" s="139"/>
+      <c r="Y42" s="139"/>
+      <c r="Z42" s="139"/>
+      <c r="AA42" s="139"/>
+      <c r="AB42" s="139"/>
+      <c r="AC42" s="139"/>
+      <c r="AD42" s="140"/>
+      <c r="AE42" s="138">
+        <v>0</v>
+      </c>
+      <c r="AF42" s="139"/>
+      <c r="AG42" s="139"/>
+      <c r="AH42" s="139"/>
+      <c r="AI42" s="140"/>
+      <c r="AJ42" s="144">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AK42" s="165"/>
+      <c r="AK42" s="145"/>
     </row>
     <row r="43" spans="1:256" s="40" customFormat="1" ht="27.75" customHeight="1">
       <c r="A43" s="54">
         <v>19</v>
       </c>
-      <c r="B43" s="166" t="str">
+      <c r="B43" s="133" t="str">
         <f>IF(I43="","",VLOOKUP(I43,#REF!,2,0))</f>
         <v/>
       </c>
-      <c r="C43" s="167"/>
-      <c r="D43" s="167"/>
-      <c r="E43" s="167"/>
-      <c r="F43" s="167"/>
-      <c r="G43" s="167"/>
-      <c r="H43" s="167"/>
-      <c r="I43" s="167"/>
-      <c r="J43" s="167"/>
-      <c r="K43" s="167"/>
-      <c r="L43" s="167"/>
-      <c r="M43" s="167"/>
-      <c r="N43" s="167"/>
-      <c r="O43" s="168"/>
-      <c r="P43" s="168"/>
-      <c r="Q43" s="168"/>
-      <c r="R43" s="168"/>
-      <c r="S43" s="168"/>
-      <c r="T43" s="168"/>
-      <c r="U43" s="168"/>
-      <c r="V43" s="168"/>
-      <c r="W43" s="181">
+      <c r="C43" s="134"/>
+      <c r="D43" s="134"/>
+      <c r="E43" s="134"/>
+      <c r="F43" s="134"/>
+      <c r="G43" s="134"/>
+      <c r="H43" s="134"/>
+      <c r="I43" s="134"/>
+      <c r="J43" s="134"/>
+      <c r="K43" s="134"/>
+      <c r="L43" s="134"/>
+      <c r="M43" s="134"/>
+      <c r="N43" s="134"/>
+      <c r="O43" s="136"/>
+      <c r="P43" s="136"/>
+      <c r="Q43" s="136"/>
+      <c r="R43" s="136"/>
+      <c r="S43" s="136"/>
+      <c r="T43" s="136"/>
+      <c r="U43" s="136"/>
+      <c r="V43" s="136"/>
+      <c r="W43" s="138">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="X43" s="183"/>
-      <c r="Y43" s="183"/>
-      <c r="Z43" s="183"/>
-      <c r="AA43" s="183"/>
-      <c r="AB43" s="183"/>
-      <c r="AC43" s="183"/>
-      <c r="AD43" s="184"/>
-      <c r="AE43" s="181">
-        <v>0</v>
-      </c>
-      <c r="AF43" s="183"/>
-      <c r="AG43" s="183"/>
-      <c r="AH43" s="183"/>
-      <c r="AI43" s="184"/>
-      <c r="AJ43" s="164">
+      <c r="X43" s="139"/>
+      <c r="Y43" s="139"/>
+      <c r="Z43" s="139"/>
+      <c r="AA43" s="139"/>
+      <c r="AB43" s="139"/>
+      <c r="AC43" s="139"/>
+      <c r="AD43" s="140"/>
+      <c r="AE43" s="138">
+        <v>0</v>
+      </c>
+      <c r="AF43" s="139"/>
+      <c r="AG43" s="139"/>
+      <c r="AH43" s="139"/>
+      <c r="AI43" s="140"/>
+      <c r="AJ43" s="144">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AK43" s="165"/>
+      <c r="AK43" s="145"/>
       <c r="AL43" s="9"/>
       <c r="AM43" s="9"/>
       <c r="AN43" s="9"/>
@@ -4725,53 +4783,53 @@
       <c r="A44" s="56">
         <v>20</v>
       </c>
-      <c r="B44" s="166" t="str">
+      <c r="B44" s="133" t="str">
         <f>IF(I44="","",VLOOKUP(I44,#REF!,2,0))</f>
         <v/>
       </c>
-      <c r="C44" s="167"/>
-      <c r="D44" s="167"/>
-      <c r="E44" s="167"/>
-      <c r="F44" s="167"/>
-      <c r="G44" s="167"/>
-      <c r="H44" s="167"/>
-      <c r="I44" s="185"/>
-      <c r="J44" s="185"/>
-      <c r="K44" s="185"/>
-      <c r="L44" s="185"/>
-      <c r="M44" s="185"/>
-      <c r="N44" s="185"/>
-      <c r="O44" s="168"/>
-      <c r="P44" s="168"/>
-      <c r="Q44" s="168"/>
-      <c r="R44" s="168"/>
-      <c r="S44" s="168"/>
-      <c r="T44" s="168"/>
-      <c r="U44" s="186"/>
-      <c r="V44" s="186"/>
-      <c r="W44" s="181">
+      <c r="C44" s="134"/>
+      <c r="D44" s="134"/>
+      <c r="E44" s="134"/>
+      <c r="F44" s="134"/>
+      <c r="G44" s="134"/>
+      <c r="H44" s="134"/>
+      <c r="I44" s="135"/>
+      <c r="J44" s="135"/>
+      <c r="K44" s="135"/>
+      <c r="L44" s="135"/>
+      <c r="M44" s="135"/>
+      <c r="N44" s="135"/>
+      <c r="O44" s="136"/>
+      <c r="P44" s="136"/>
+      <c r="Q44" s="136"/>
+      <c r="R44" s="136"/>
+      <c r="S44" s="136"/>
+      <c r="T44" s="136"/>
+      <c r="U44" s="137"/>
+      <c r="V44" s="137"/>
+      <c r="W44" s="138">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="X44" s="183"/>
-      <c r="Y44" s="183"/>
-      <c r="Z44" s="183"/>
-      <c r="AA44" s="183"/>
-      <c r="AB44" s="183"/>
-      <c r="AC44" s="183"/>
-      <c r="AD44" s="184"/>
-      <c r="AE44" s="187">
-        <v>0</v>
-      </c>
-      <c r="AF44" s="188"/>
-      <c r="AG44" s="188"/>
-      <c r="AH44" s="188"/>
-      <c r="AI44" s="189"/>
-      <c r="AJ44" s="164">
+      <c r="X44" s="139"/>
+      <c r="Y44" s="139"/>
+      <c r="Z44" s="139"/>
+      <c r="AA44" s="139"/>
+      <c r="AB44" s="139"/>
+      <c r="AC44" s="139"/>
+      <c r="AD44" s="140"/>
+      <c r="AE44" s="141">
+        <v>0</v>
+      </c>
+      <c r="AF44" s="142"/>
+      <c r="AG44" s="142"/>
+      <c r="AH44" s="142"/>
+      <c r="AI44" s="143"/>
+      <c r="AJ44" s="144">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AK44" s="165"/>
+      <c r="AK44" s="145"/>
       <c r="AL44" s="9"/>
       <c r="AM44" s="9"/>
       <c r="AN44" s="9"/>
@@ -4993,54 +5051,54 @@
       <c r="IV44" s="9"/>
     </row>
     <row r="45" spans="1:256" s="33" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A45" s="196" t="s">
+      <c r="A45" s="115" t="s">
         <v>40</v>
       </c>
-      <c r="B45" s="197"/>
-      <c r="C45" s="197"/>
-      <c r="D45" s="197"/>
-      <c r="E45" s="197"/>
-      <c r="F45" s="197"/>
-      <c r="G45" s="197"/>
-      <c r="H45" s="197"/>
-      <c r="I45" s="197"/>
-      <c r="J45" s="197"/>
-      <c r="K45" s="197"/>
-      <c r="L45" s="197"/>
-      <c r="M45" s="197"/>
-      <c r="N45" s="197"/>
-      <c r="O45" s="197"/>
-      <c r="P45" s="197"/>
-      <c r="Q45" s="197"/>
-      <c r="R45" s="197"/>
-      <c r="S45" s="197"/>
-      <c r="T45" s="197"/>
-      <c r="U45" s="197"/>
-      <c r="V45" s="198"/>
-      <c r="W45" s="199">
+      <c r="B45" s="116"/>
+      <c r="C45" s="116"/>
+      <c r="D45" s="116"/>
+      <c r="E45" s="116"/>
+      <c r="F45" s="116"/>
+      <c r="G45" s="116"/>
+      <c r="H45" s="116"/>
+      <c r="I45" s="116"/>
+      <c r="J45" s="116"/>
+      <c r="K45" s="116"/>
+      <c r="L45" s="116"/>
+      <c r="M45" s="116"/>
+      <c r="N45" s="116"/>
+      <c r="O45" s="116"/>
+      <c r="P45" s="116"/>
+      <c r="Q45" s="116"/>
+      <c r="R45" s="116"/>
+      <c r="S45" s="116"/>
+      <c r="T45" s="116"/>
+      <c r="U45" s="116"/>
+      <c r="V45" s="117"/>
+      <c r="W45" s="118">
         <f>SUM(W25:AD44)</f>
         <v>0</v>
       </c>
-      <c r="X45" s="200"/>
-      <c r="Y45" s="200"/>
-      <c r="Z45" s="200"/>
-      <c r="AA45" s="200"/>
-      <c r="AB45" s="200"/>
-      <c r="AC45" s="200"/>
-      <c r="AD45" s="201"/>
-      <c r="AE45" s="199">
+      <c r="X45" s="119"/>
+      <c r="Y45" s="119"/>
+      <c r="Z45" s="119"/>
+      <c r="AA45" s="119"/>
+      <c r="AB45" s="119"/>
+      <c r="AC45" s="119"/>
+      <c r="AD45" s="120"/>
+      <c r="AE45" s="118">
         <f>SUM(AE25:AI44)</f>
         <v>0</v>
       </c>
-      <c r="AF45" s="200"/>
-      <c r="AG45" s="200"/>
-      <c r="AH45" s="200"/>
-      <c r="AI45" s="201"/>
-      <c r="AJ45" s="202">
+      <c r="AF45" s="119"/>
+      <c r="AG45" s="119"/>
+      <c r="AH45" s="119"/>
+      <c r="AI45" s="120"/>
+      <c r="AJ45" s="121">
         <f>SUM(AJ25:AK44)</f>
         <v>0</v>
       </c>
-      <c r="AK45" s="203"/>
+      <c r="AK45" s="122"/>
       <c r="AL45" s="31"/>
       <c r="AM45" s="31"/>
       <c r="AN45" s="31"/>
@@ -5329,46 +5387,46 @@
       <c r="AK47" s="30"/>
     </row>
     <row r="48" spans="1:256" ht="19.5" customHeight="1">
-      <c r="A48" s="204" t="s">
+      <c r="A48" s="123" t="s">
         <v>19</v>
       </c>
-      <c r="B48" s="204"/>
-      <c r="C48" s="204"/>
-      <c r="D48" s="204"/>
-      <c r="E48" s="204"/>
-      <c r="F48" s="204"/>
-      <c r="G48" s="204"/>
-      <c r="H48" s="204"/>
-      <c r="I48" s="204"/>
-      <c r="J48" s="204"/>
-      <c r="K48" s="204"/>
-      <c r="L48" s="204"/>
-      <c r="M48" s="204"/>
-      <c r="N48" s="204"/>
-      <c r="O48" s="204"/>
-      <c r="P48" s="204"/>
-      <c r="R48" s="205" t="s">
+      <c r="B48" s="123"/>
+      <c r="C48" s="123"/>
+      <c r="D48" s="123"/>
+      <c r="E48" s="123"/>
+      <c r="F48" s="123"/>
+      <c r="G48" s="123"/>
+      <c r="H48" s="123"/>
+      <c r="I48" s="123"/>
+      <c r="J48" s="123"/>
+      <c r="K48" s="123"/>
+      <c r="L48" s="123"/>
+      <c r="M48" s="123"/>
+      <c r="N48" s="123"/>
+      <c r="O48" s="123"/>
+      <c r="P48" s="123"/>
+      <c r="R48" s="124" t="s">
         <v>41</v>
       </c>
-      <c r="S48" s="206"/>
-      <c r="T48" s="206"/>
-      <c r="U48" s="206"/>
-      <c r="V48" s="206"/>
-      <c r="W48" s="206"/>
-      <c r="X48" s="206"/>
-      <c r="Y48" s="206"/>
-      <c r="Z48" s="206"/>
-      <c r="AA48" s="206"/>
-      <c r="AB48" s="206"/>
-      <c r="AC48" s="206"/>
-      <c r="AD48" s="206"/>
-      <c r="AE48" s="206"/>
-      <c r="AF48" s="206"/>
-      <c r="AG48" s="206"/>
-      <c r="AH48" s="206"/>
-      <c r="AI48" s="206"/>
-      <c r="AJ48" s="206"/>
-      <c r="AK48" s="207"/>
+      <c r="S48" s="125"/>
+      <c r="T48" s="125"/>
+      <c r="U48" s="125"/>
+      <c r="V48" s="125"/>
+      <c r="W48" s="125"/>
+      <c r="X48" s="125"/>
+      <c r="Y48" s="125"/>
+      <c r="Z48" s="125"/>
+      <c r="AA48" s="125"/>
+      <c r="AB48" s="125"/>
+      <c r="AC48" s="125"/>
+      <c r="AD48" s="125"/>
+      <c r="AE48" s="125"/>
+      <c r="AF48" s="125"/>
+      <c r="AG48" s="125"/>
+      <c r="AH48" s="125"/>
+      <c r="AI48" s="125"/>
+      <c r="AJ48" s="125"/>
+      <c r="AK48" s="126"/>
     </row>
     <row r="49" spans="1:37" ht="11.25" customHeight="1">
       <c r="A49" s="80"/>
@@ -5387,32 +5445,32 @@
       <c r="N49" s="81"/>
       <c r="O49" s="81"/>
       <c r="P49" s="82"/>
-      <c r="R49" s="208" t="s">
+      <c r="R49" s="127" t="s">
         <v>21</v>
       </c>
-      <c r="S49" s="209"/>
-      <c r="T49" s="209"/>
-      <c r="U49" s="209"/>
-      <c r="V49" s="209"/>
-      <c r="W49" s="209"/>
-      <c r="X49" s="209"/>
-      <c r="Y49" s="209"/>
-      <c r="Z49" s="209"/>
-      <c r="AA49" s="209"/>
-      <c r="AB49" s="209"/>
-      <c r="AC49" s="209"/>
-      <c r="AD49" s="210"/>
-      <c r="AE49" s="208" t="s">
+      <c r="S49" s="128"/>
+      <c r="T49" s="128"/>
+      <c r="U49" s="128"/>
+      <c r="V49" s="128"/>
+      <c r="W49" s="128"/>
+      <c r="X49" s="128"/>
+      <c r="Y49" s="128"/>
+      <c r="Z49" s="128"/>
+      <c r="AA49" s="128"/>
+      <c r="AB49" s="128"/>
+      <c r="AC49" s="128"/>
+      <c r="AD49" s="129"/>
+      <c r="AE49" s="127" t="s">
         <v>22</v>
       </c>
-      <c r="AF49" s="209"/>
-      <c r="AG49" s="209"/>
-      <c r="AH49" s="209"/>
-      <c r="AI49" s="210"/>
-      <c r="AJ49" s="208" t="s">
+      <c r="AF49" s="128"/>
+      <c r="AG49" s="128"/>
+      <c r="AH49" s="128"/>
+      <c r="AI49" s="129"/>
+      <c r="AJ49" s="127" t="s">
         <v>12</v>
       </c>
-      <c r="AK49" s="210"/>
+      <c r="AK49" s="129"/>
     </row>
     <row r="50" spans="1:37" s="21" customFormat="1" ht="19.5" customHeight="1">
       <c r="A50" s="71"/>
@@ -5433,26 +5491,26 @@
       <c r="N50" s="19"/>
       <c r="O50" s="19"/>
       <c r="P50" s="72"/>
-      <c r="R50" s="211"/>
-      <c r="S50" s="212"/>
-      <c r="T50" s="212"/>
-      <c r="U50" s="212"/>
-      <c r="V50" s="212"/>
-      <c r="W50" s="212"/>
-      <c r="X50" s="212"/>
-      <c r="Y50" s="212"/>
-      <c r="Z50" s="212"/>
-      <c r="AA50" s="212"/>
-      <c r="AB50" s="212"/>
-      <c r="AC50" s="212"/>
-      <c r="AD50" s="213"/>
-      <c r="AE50" s="211"/>
-      <c r="AF50" s="212"/>
-      <c r="AG50" s="212"/>
-      <c r="AH50" s="212"/>
-      <c r="AI50" s="213"/>
-      <c r="AJ50" s="211"/>
-      <c r="AK50" s="213"/>
+      <c r="R50" s="130"/>
+      <c r="S50" s="131"/>
+      <c r="T50" s="131"/>
+      <c r="U50" s="131"/>
+      <c r="V50" s="131"/>
+      <c r="W50" s="131"/>
+      <c r="X50" s="131"/>
+      <c r="Y50" s="131"/>
+      <c r="Z50" s="131"/>
+      <c r="AA50" s="131"/>
+      <c r="AB50" s="131"/>
+      <c r="AC50" s="131"/>
+      <c r="AD50" s="132"/>
+      <c r="AE50" s="130"/>
+      <c r="AF50" s="131"/>
+      <c r="AG50" s="131"/>
+      <c r="AH50" s="131"/>
+      <c r="AI50" s="132"/>
+      <c r="AJ50" s="130"/>
+      <c r="AK50" s="132"/>
     </row>
     <row r="51" spans="1:37" s="21" customFormat="1" ht="9" customHeight="1">
       <c r="A51" s="71"/>
@@ -5471,26 +5529,26 @@
       <c r="N51" s="19"/>
       <c r="O51" s="19"/>
       <c r="P51" s="72"/>
-      <c r="R51" s="190"/>
-      <c r="S51" s="191"/>
-      <c r="T51" s="191"/>
-      <c r="U51" s="191"/>
-      <c r="V51" s="191"/>
-      <c r="W51" s="191"/>
-      <c r="X51" s="191"/>
-      <c r="Y51" s="191"/>
-      <c r="Z51" s="191"/>
-      <c r="AA51" s="191"/>
-      <c r="AB51" s="191"/>
-      <c r="AC51" s="191"/>
-      <c r="AD51" s="192"/>
-      <c r="AE51" s="190"/>
-      <c r="AF51" s="191"/>
-      <c r="AG51" s="191"/>
-      <c r="AH51" s="191"/>
-      <c r="AI51" s="192"/>
-      <c r="AJ51" s="190"/>
-      <c r="AK51" s="192"/>
+      <c r="R51" s="109"/>
+      <c r="S51" s="110"/>
+      <c r="T51" s="110"/>
+      <c r="U51" s="110"/>
+      <c r="V51" s="110"/>
+      <c r="W51" s="110"/>
+      <c r="X51" s="110"/>
+      <c r="Y51" s="110"/>
+      <c r="Z51" s="110"/>
+      <c r="AA51" s="110"/>
+      <c r="AB51" s="110"/>
+      <c r="AC51" s="110"/>
+      <c r="AD51" s="111"/>
+      <c r="AE51" s="109"/>
+      <c r="AF51" s="110"/>
+      <c r="AG51" s="110"/>
+      <c r="AH51" s="110"/>
+      <c r="AI51" s="111"/>
+      <c r="AJ51" s="109"/>
+      <c r="AK51" s="111"/>
     </row>
     <row r="52" spans="1:37" ht="19.5" customHeight="1">
       <c r="A52" s="73"/>
@@ -5512,26 +5570,26 @@
       <c r="O52" s="23"/>
       <c r="P52" s="74"/>
       <c r="Q52" s="45"/>
-      <c r="R52" s="193"/>
-      <c r="S52" s="194"/>
-      <c r="T52" s="194"/>
-      <c r="U52" s="194"/>
-      <c r="V52" s="194"/>
-      <c r="W52" s="194"/>
-      <c r="X52" s="194"/>
-      <c r="Y52" s="194"/>
-      <c r="Z52" s="194"/>
-      <c r="AA52" s="194"/>
-      <c r="AB52" s="194"/>
-      <c r="AC52" s="194"/>
-      <c r="AD52" s="195"/>
-      <c r="AE52" s="193"/>
-      <c r="AF52" s="194"/>
-      <c r="AG52" s="194"/>
-      <c r="AH52" s="194"/>
-      <c r="AI52" s="195"/>
-      <c r="AJ52" s="193"/>
-      <c r="AK52" s="195"/>
+      <c r="R52" s="112"/>
+      <c r="S52" s="113"/>
+      <c r="T52" s="113"/>
+      <c r="U52" s="113"/>
+      <c r="V52" s="113"/>
+      <c r="W52" s="113"/>
+      <c r="X52" s="113"/>
+      <c r="Y52" s="113"/>
+      <c r="Z52" s="113"/>
+      <c r="AA52" s="113"/>
+      <c r="AB52" s="113"/>
+      <c r="AC52" s="113"/>
+      <c r="AD52" s="114"/>
+      <c r="AE52" s="112"/>
+      <c r="AF52" s="113"/>
+      <c r="AG52" s="113"/>
+      <c r="AH52" s="113"/>
+      <c r="AI52" s="114"/>
+      <c r="AJ52" s="112"/>
+      <c r="AK52" s="114"/>
     </row>
     <row r="53" spans="1:37" ht="6.75" customHeight="1">
       <c r="A53" s="75"/>
@@ -5660,143 +5718,71 @@
     </row>
   </sheetData>
   <mergeCells count="225">
-    <mergeCell ref="R51:AD52"/>
-    <mergeCell ref="AE51:AI52"/>
-    <mergeCell ref="AJ51:AK52"/>
-    <mergeCell ref="A45:V45"/>
-    <mergeCell ref="W45:AD45"/>
-    <mergeCell ref="AE45:AI45"/>
-    <mergeCell ref="AJ45:AK45"/>
-    <mergeCell ref="A48:P48"/>
-    <mergeCell ref="R48:AK48"/>
-    <mergeCell ref="R49:AD50"/>
-    <mergeCell ref="AE49:AI50"/>
-    <mergeCell ref="AJ49:AK50"/>
-    <mergeCell ref="B44:H44"/>
-    <mergeCell ref="I44:N44"/>
-    <mergeCell ref="O44:T44"/>
-    <mergeCell ref="U44:V44"/>
-    <mergeCell ref="W44:AD44"/>
-    <mergeCell ref="AE44:AI44"/>
-    <mergeCell ref="AJ44:AK44"/>
-    <mergeCell ref="B43:H43"/>
-    <mergeCell ref="I43:N43"/>
-    <mergeCell ref="AE42:AI42"/>
-    <mergeCell ref="AJ42:AK42"/>
-    <mergeCell ref="B41:H41"/>
-    <mergeCell ref="I41:N41"/>
-    <mergeCell ref="O41:T41"/>
-    <mergeCell ref="U41:V41"/>
-    <mergeCell ref="W41:AD41"/>
-    <mergeCell ref="AE41:AI41"/>
-    <mergeCell ref="O43:T43"/>
-    <mergeCell ref="U43:V43"/>
-    <mergeCell ref="W43:AD43"/>
-    <mergeCell ref="AE43:AI43"/>
-    <mergeCell ref="AJ41:AK41"/>
-    <mergeCell ref="B42:H42"/>
-    <mergeCell ref="I42:N42"/>
-    <mergeCell ref="O42:T42"/>
-    <mergeCell ref="U42:V42"/>
-    <mergeCell ref="W42:AD42"/>
-    <mergeCell ref="AJ43:AK43"/>
-    <mergeCell ref="B40:H40"/>
-    <mergeCell ref="I40:N40"/>
-    <mergeCell ref="O40:T40"/>
-    <mergeCell ref="U40:V40"/>
-    <mergeCell ref="W40:AD40"/>
-    <mergeCell ref="AE40:AI40"/>
-    <mergeCell ref="AJ40:AK40"/>
-    <mergeCell ref="B39:H39"/>
-    <mergeCell ref="I39:N39"/>
-    <mergeCell ref="AE38:AI38"/>
-    <mergeCell ref="AJ38:AK38"/>
-    <mergeCell ref="B37:H37"/>
-    <mergeCell ref="I37:N37"/>
-    <mergeCell ref="O37:T37"/>
-    <mergeCell ref="U37:V37"/>
-    <mergeCell ref="W37:AD37"/>
-    <mergeCell ref="AE37:AI37"/>
-    <mergeCell ref="O39:T39"/>
-    <mergeCell ref="U39:V39"/>
-    <mergeCell ref="W39:AD39"/>
-    <mergeCell ref="AE39:AI39"/>
-    <mergeCell ref="AJ37:AK37"/>
-    <mergeCell ref="B38:H38"/>
-    <mergeCell ref="I38:N38"/>
-    <mergeCell ref="O38:T38"/>
-    <mergeCell ref="U38:V38"/>
-    <mergeCell ref="W38:AD38"/>
-    <mergeCell ref="AJ39:AK39"/>
-    <mergeCell ref="B36:H36"/>
-    <mergeCell ref="I36:N36"/>
-    <mergeCell ref="O36:T36"/>
-    <mergeCell ref="U36:V36"/>
-    <mergeCell ref="W36:AD36"/>
-    <mergeCell ref="AE36:AI36"/>
-    <mergeCell ref="AJ36:AK36"/>
-    <mergeCell ref="B35:H35"/>
-    <mergeCell ref="I35:N35"/>
-    <mergeCell ref="AE34:AI34"/>
-    <mergeCell ref="AJ34:AK34"/>
-    <mergeCell ref="B33:H33"/>
-    <mergeCell ref="I33:N33"/>
-    <mergeCell ref="O33:T33"/>
-    <mergeCell ref="U33:V33"/>
-    <mergeCell ref="W33:AD33"/>
-    <mergeCell ref="AE33:AI33"/>
-    <mergeCell ref="O35:T35"/>
-    <mergeCell ref="U35:V35"/>
-    <mergeCell ref="W35:AD35"/>
-    <mergeCell ref="AE35:AI35"/>
-    <mergeCell ref="AJ33:AK33"/>
-    <mergeCell ref="B34:H34"/>
-    <mergeCell ref="I34:N34"/>
-    <mergeCell ref="O34:T34"/>
-    <mergeCell ref="U34:V34"/>
-    <mergeCell ref="W34:AD34"/>
-    <mergeCell ref="AJ35:AK35"/>
-    <mergeCell ref="B32:H32"/>
-    <mergeCell ref="I32:N32"/>
-    <mergeCell ref="O32:T32"/>
-    <mergeCell ref="U32:V32"/>
-    <mergeCell ref="W32:AD32"/>
-    <mergeCell ref="AE32:AI32"/>
-    <mergeCell ref="AJ32:AK32"/>
-    <mergeCell ref="B31:H31"/>
-    <mergeCell ref="I31:N31"/>
-    <mergeCell ref="AE30:AI30"/>
-    <mergeCell ref="AJ30:AK30"/>
-    <mergeCell ref="B29:H29"/>
-    <mergeCell ref="I29:N29"/>
-    <mergeCell ref="O29:T29"/>
-    <mergeCell ref="U29:V29"/>
-    <mergeCell ref="W29:AD29"/>
-    <mergeCell ref="AE29:AI29"/>
-    <mergeCell ref="O31:T31"/>
-    <mergeCell ref="U31:V31"/>
-    <mergeCell ref="W31:AD31"/>
-    <mergeCell ref="AE31:AI31"/>
-    <mergeCell ref="AJ29:AK29"/>
-    <mergeCell ref="B30:H30"/>
-    <mergeCell ref="I30:N30"/>
-    <mergeCell ref="O30:T30"/>
-    <mergeCell ref="U30:V30"/>
-    <mergeCell ref="W30:AD30"/>
-    <mergeCell ref="AJ31:AK31"/>
-    <mergeCell ref="B28:H28"/>
-    <mergeCell ref="I28:N28"/>
-    <mergeCell ref="O28:T28"/>
-    <mergeCell ref="U28:V28"/>
-    <mergeCell ref="W28:AD28"/>
-    <mergeCell ref="AE28:AI28"/>
-    <mergeCell ref="AJ28:AK28"/>
-    <mergeCell ref="B27:H27"/>
-    <mergeCell ref="I27:N27"/>
-    <mergeCell ref="O27:T27"/>
-    <mergeCell ref="U27:V27"/>
-    <mergeCell ref="W27:AD27"/>
-    <mergeCell ref="AE27:AI27"/>
+    <mergeCell ref="J2:AE5"/>
+    <mergeCell ref="AH2:AH4"/>
+    <mergeCell ref="AI2:AK4"/>
+    <mergeCell ref="N6:U6"/>
+    <mergeCell ref="AG7:AK7"/>
+    <mergeCell ref="A8:J8"/>
+    <mergeCell ref="K8:AA9"/>
+    <mergeCell ref="AH8:AK8"/>
+    <mergeCell ref="D9:J9"/>
+    <mergeCell ref="AH9:AK9"/>
+    <mergeCell ref="C10:J10"/>
+    <mergeCell ref="K10:AA10"/>
+    <mergeCell ref="AD10:AK10"/>
+    <mergeCell ref="C11:J11"/>
+    <mergeCell ref="K11:AA11"/>
+    <mergeCell ref="AE11:AK11"/>
+    <mergeCell ref="A13:R13"/>
+    <mergeCell ref="S13:AI13"/>
+    <mergeCell ref="AJ13:AK13"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="E18:H18"/>
+    <mergeCell ref="I18:L18"/>
+    <mergeCell ref="M18:O18"/>
+    <mergeCell ref="P18:V18"/>
+    <mergeCell ref="W18:AC18"/>
+    <mergeCell ref="AD18:AH18"/>
+    <mergeCell ref="AI18:AK18"/>
+    <mergeCell ref="A14:R16"/>
+    <mergeCell ref="S14:AI16"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:H19"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="M19:O19"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="R19:V19"/>
+    <mergeCell ref="W19:AC19"/>
+    <mergeCell ref="AE19:AH19"/>
+    <mergeCell ref="AI19:AK19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:H20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="M20:O20"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="R20:V20"/>
+    <mergeCell ref="W20:AC20"/>
+    <mergeCell ref="AE20:AH20"/>
+    <mergeCell ref="AI20:AK20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:H21"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="M21:O21"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="R21:V21"/>
+    <mergeCell ref="W21:AC21"/>
+    <mergeCell ref="AE21:AH21"/>
+    <mergeCell ref="AI21:AK21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:H22"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="M22:O22"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="R22:V22"/>
+    <mergeCell ref="W22:AC22"/>
+    <mergeCell ref="AE22:AH22"/>
+    <mergeCell ref="AI22:AK22"/>
     <mergeCell ref="AJ25:AK25"/>
     <mergeCell ref="B26:H26"/>
     <mergeCell ref="I26:N26"/>
@@ -5820,74 +5806,146 @@
     <mergeCell ref="U25:V25"/>
     <mergeCell ref="W25:AD25"/>
     <mergeCell ref="AE25:AI25"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E22:H22"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="M22:O22"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="R22:V22"/>
-    <mergeCell ref="W22:AC22"/>
-    <mergeCell ref="AE22:AH22"/>
-    <mergeCell ref="AI22:AK22"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:H21"/>
-    <mergeCell ref="J21:L21"/>
-    <mergeCell ref="M21:O21"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="R21:V21"/>
-    <mergeCell ref="W21:AC21"/>
-    <mergeCell ref="AE21:AH21"/>
-    <mergeCell ref="AI21:AK21"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:H20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="M20:O20"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="R20:V20"/>
-    <mergeCell ref="W20:AC20"/>
-    <mergeCell ref="AE20:AH20"/>
-    <mergeCell ref="AI20:AK20"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:H19"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="M19:O19"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="R19:V19"/>
-    <mergeCell ref="W19:AC19"/>
-    <mergeCell ref="AE19:AH19"/>
-    <mergeCell ref="AI19:AK19"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="E18:H18"/>
-    <mergeCell ref="I18:L18"/>
-    <mergeCell ref="M18:O18"/>
-    <mergeCell ref="P18:V18"/>
-    <mergeCell ref="W18:AC18"/>
-    <mergeCell ref="AD18:AH18"/>
-    <mergeCell ref="AI18:AK18"/>
-    <mergeCell ref="A14:R16"/>
-    <mergeCell ref="S14:AI16"/>
-    <mergeCell ref="C10:J10"/>
-    <mergeCell ref="K10:AA10"/>
-    <mergeCell ref="AD10:AK10"/>
-    <mergeCell ref="C11:J11"/>
-    <mergeCell ref="K11:AA11"/>
-    <mergeCell ref="AE11:AK11"/>
-    <mergeCell ref="A13:R13"/>
-    <mergeCell ref="S13:AI13"/>
-    <mergeCell ref="AJ13:AK13"/>
-    <mergeCell ref="J2:AE5"/>
-    <mergeCell ref="AH2:AH4"/>
-    <mergeCell ref="AI2:AK4"/>
-    <mergeCell ref="N6:U6"/>
-    <mergeCell ref="AG7:AK7"/>
-    <mergeCell ref="A8:J8"/>
-    <mergeCell ref="K8:AA9"/>
-    <mergeCell ref="AH8:AK8"/>
-    <mergeCell ref="D9:J9"/>
-    <mergeCell ref="AH9:AK9"/>
+    <mergeCell ref="B28:H28"/>
+    <mergeCell ref="I28:N28"/>
+    <mergeCell ref="O28:T28"/>
+    <mergeCell ref="U28:V28"/>
+    <mergeCell ref="W28:AD28"/>
+    <mergeCell ref="AE28:AI28"/>
+    <mergeCell ref="AJ28:AK28"/>
+    <mergeCell ref="B27:H27"/>
+    <mergeCell ref="I27:N27"/>
+    <mergeCell ref="O27:T27"/>
+    <mergeCell ref="U27:V27"/>
+    <mergeCell ref="W27:AD27"/>
+    <mergeCell ref="AE27:AI27"/>
+    <mergeCell ref="AE30:AI30"/>
+    <mergeCell ref="AJ30:AK30"/>
+    <mergeCell ref="B29:H29"/>
+    <mergeCell ref="I29:N29"/>
+    <mergeCell ref="O29:T29"/>
+    <mergeCell ref="U29:V29"/>
+    <mergeCell ref="W29:AD29"/>
+    <mergeCell ref="AE29:AI29"/>
+    <mergeCell ref="O31:T31"/>
+    <mergeCell ref="U31:V31"/>
+    <mergeCell ref="W31:AD31"/>
+    <mergeCell ref="AE31:AI31"/>
+    <mergeCell ref="AJ29:AK29"/>
+    <mergeCell ref="B30:H30"/>
+    <mergeCell ref="I30:N30"/>
+    <mergeCell ref="O30:T30"/>
+    <mergeCell ref="U30:V30"/>
+    <mergeCell ref="W30:AD30"/>
+    <mergeCell ref="AJ31:AK31"/>
+    <mergeCell ref="B32:H32"/>
+    <mergeCell ref="I32:N32"/>
+    <mergeCell ref="O32:T32"/>
+    <mergeCell ref="U32:V32"/>
+    <mergeCell ref="W32:AD32"/>
+    <mergeCell ref="AE32:AI32"/>
+    <mergeCell ref="AJ32:AK32"/>
+    <mergeCell ref="B31:H31"/>
+    <mergeCell ref="I31:N31"/>
+    <mergeCell ref="AE34:AI34"/>
+    <mergeCell ref="AJ34:AK34"/>
+    <mergeCell ref="B33:H33"/>
+    <mergeCell ref="I33:N33"/>
+    <mergeCell ref="O33:T33"/>
+    <mergeCell ref="U33:V33"/>
+    <mergeCell ref="W33:AD33"/>
+    <mergeCell ref="AE33:AI33"/>
+    <mergeCell ref="O35:T35"/>
+    <mergeCell ref="U35:V35"/>
+    <mergeCell ref="W35:AD35"/>
+    <mergeCell ref="AE35:AI35"/>
+    <mergeCell ref="AJ33:AK33"/>
+    <mergeCell ref="B34:H34"/>
+    <mergeCell ref="I34:N34"/>
+    <mergeCell ref="O34:T34"/>
+    <mergeCell ref="U34:V34"/>
+    <mergeCell ref="W34:AD34"/>
+    <mergeCell ref="AJ35:AK35"/>
+    <mergeCell ref="B36:H36"/>
+    <mergeCell ref="I36:N36"/>
+    <mergeCell ref="O36:T36"/>
+    <mergeCell ref="U36:V36"/>
+    <mergeCell ref="W36:AD36"/>
+    <mergeCell ref="AE36:AI36"/>
+    <mergeCell ref="AJ36:AK36"/>
+    <mergeCell ref="B35:H35"/>
+    <mergeCell ref="I35:N35"/>
+    <mergeCell ref="AE38:AI38"/>
+    <mergeCell ref="AJ38:AK38"/>
+    <mergeCell ref="B37:H37"/>
+    <mergeCell ref="I37:N37"/>
+    <mergeCell ref="O37:T37"/>
+    <mergeCell ref="U37:V37"/>
+    <mergeCell ref="W37:AD37"/>
+    <mergeCell ref="AE37:AI37"/>
+    <mergeCell ref="O39:T39"/>
+    <mergeCell ref="U39:V39"/>
+    <mergeCell ref="W39:AD39"/>
+    <mergeCell ref="AE39:AI39"/>
+    <mergeCell ref="AJ37:AK37"/>
+    <mergeCell ref="B38:H38"/>
+    <mergeCell ref="I38:N38"/>
+    <mergeCell ref="O38:T38"/>
+    <mergeCell ref="U38:V38"/>
+    <mergeCell ref="W38:AD38"/>
+    <mergeCell ref="AJ39:AK39"/>
+    <mergeCell ref="B40:H40"/>
+    <mergeCell ref="I40:N40"/>
+    <mergeCell ref="O40:T40"/>
+    <mergeCell ref="U40:V40"/>
+    <mergeCell ref="W40:AD40"/>
+    <mergeCell ref="AE40:AI40"/>
+    <mergeCell ref="AJ40:AK40"/>
+    <mergeCell ref="B39:H39"/>
+    <mergeCell ref="I39:N39"/>
+    <mergeCell ref="AE42:AI42"/>
+    <mergeCell ref="AJ42:AK42"/>
+    <mergeCell ref="B41:H41"/>
+    <mergeCell ref="I41:N41"/>
+    <mergeCell ref="O41:T41"/>
+    <mergeCell ref="U41:V41"/>
+    <mergeCell ref="W41:AD41"/>
+    <mergeCell ref="AE41:AI41"/>
+    <mergeCell ref="O43:T43"/>
+    <mergeCell ref="U43:V43"/>
+    <mergeCell ref="W43:AD43"/>
+    <mergeCell ref="AE43:AI43"/>
+    <mergeCell ref="AJ41:AK41"/>
+    <mergeCell ref="B42:H42"/>
+    <mergeCell ref="I42:N42"/>
+    <mergeCell ref="O42:T42"/>
+    <mergeCell ref="U42:V42"/>
+    <mergeCell ref="W42:AD42"/>
+    <mergeCell ref="AJ43:AK43"/>
+    <mergeCell ref="B44:H44"/>
+    <mergeCell ref="I44:N44"/>
+    <mergeCell ref="O44:T44"/>
+    <mergeCell ref="U44:V44"/>
+    <mergeCell ref="W44:AD44"/>
+    <mergeCell ref="AE44:AI44"/>
+    <mergeCell ref="AJ44:AK44"/>
+    <mergeCell ref="B43:H43"/>
+    <mergeCell ref="I43:N43"/>
+    <mergeCell ref="R51:AD52"/>
+    <mergeCell ref="AE51:AI52"/>
+    <mergeCell ref="AJ51:AK52"/>
+    <mergeCell ref="A45:V45"/>
+    <mergeCell ref="W45:AD45"/>
+    <mergeCell ref="AE45:AI45"/>
+    <mergeCell ref="AJ45:AK45"/>
+    <mergeCell ref="A48:P48"/>
+    <mergeCell ref="R48:AK48"/>
+    <mergeCell ref="R49:AD50"/>
+    <mergeCell ref="AE49:AI50"/>
+    <mergeCell ref="AJ49:AK50"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I25:I44">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I25:I44" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>Mã_phụ_tùng94</formula1>
     </dataValidation>
   </dataValidations>
